--- a/Figure Data and Code/Figure 1/Uncertainty analysis.xlsx
+++ b/Figure Data and Code/Figure 1/Uncertainty analysis.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianpeng/Desktop/NCC_data_public/Figure Data and Code/Figure 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianpeng/Desktop/nonCO2-cost/SCC_decompose/Figure Data and Code/Figure 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E7E035-0B32-334E-A9A9-82D915D45F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C730B8-6793-5240-9C12-935FE2A85F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="460" windowWidth="20260" windowHeight="13940" activeTab="3" xr2:uid="{795C994A-941D-EB47-B373-0397BE0C5007}"/>
+    <workbookView xWindow="3540" yWindow="660" windowWidth="20260" windowHeight="13940" activeTab="4" xr2:uid="{795C994A-941D-EB47-B373-0397BE0C5007}"/>
   </bookViews>
   <sheets>
     <sheet name="3%" sheetId="7" r:id="rId1"/>
     <sheet name="2.5%" sheetId="8" r:id="rId2"/>
     <sheet name="5%" sheetId="9" r:id="rId3"/>
     <sheet name="uncertainty_standard" sheetId="10" r:id="rId4"/>
+    <sheet name="uncertainty_by Kim" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="41">
   <si>
     <t>SSP1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,14 +184,20 @@
   <si>
     <t>DICE Damage modules</t>
   </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00000000_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -242,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +257,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,7 +583,7 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H2" sqref="H2:H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -628,7 +641,7 @@
         <v>30</v>
       </c>
       <c r="H2">
-        <v>13.651150723245463</v>
+        <v>16.310906134223099</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -654,7 +667,7 @@
         <v>30</v>
       </c>
       <c r="H3">
-        <v>44.378945430364283</v>
+        <v>54.324663070243901</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -680,7 +693,7 @@
         <v>30</v>
       </c>
       <c r="H4">
-        <v>36.686181405972</v>
+        <v>42.574998274985397</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -707,7 +720,7 @@
         <v>31</v>
       </c>
       <c r="H5">
-        <v>13.651150723245463</v>
+        <v>16.310906134223099</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -734,7 +747,7 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>27.771284831479356</v>
+        <v>32.667065683349797</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -761,7 +774,7 @@
         <v>31</v>
       </c>
       <c r="H7">
-        <v>31.404129292095579</v>
+        <v>34.250723343611199</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -788,7 +801,7 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>37.235770404583008</v>
+        <v>43.8238203652975</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -815,7 +828,7 @@
         <v>31</v>
       </c>
       <c r="H9">
-        <v>44.378945430364283</v>
+        <v>54.324663070243901</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -842,7 +855,7 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>42.046388868435848</v>
+        <v>50.633023885381803</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -869,7 +882,7 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>20.51015575834381</v>
+        <v>27.505480578470099</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -896,7 +909,7 @@
         <v>31</v>
       </c>
       <c r="H12">
-        <v>32.355832407566979</v>
+        <v>44.375690619271097</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -923,7 +936,7 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>36.686181405972</v>
+        <v>42.574998274985397</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -950,7 +963,7 @@
         <v>31</v>
       </c>
       <c r="H14">
-        <v>13.651150723245463</v>
+        <v>16.310906134223099</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -977,7 +990,7 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>37.235770404583008</v>
+        <v>43.8238203652975</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1004,7 +1017,7 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>20.51015575834381</v>
+        <v>27.505480578470099</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1031,7 +1044,7 @@
         <v>31</v>
       </c>
       <c r="H17">
-        <v>27.771284831479356</v>
+        <v>32.667065683349797</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1058,7 +1071,7 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>44.378945430364283</v>
+        <v>54.324663070243901</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1085,7 +1098,7 @@
         <v>31</v>
       </c>
       <c r="H19">
-        <v>32.355832407566979</v>
+        <v>44.375690619271097</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1112,7 +1125,7 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>31.404129292095579</v>
+        <v>34.250723343611199</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1139,7 +1152,7 @@
         <v>31</v>
       </c>
       <c r="H21">
-        <v>42.046388868435848</v>
+        <v>50.633023885381803</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1166,7 +1179,7 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>36.686181405972</v>
+        <v>42.574998274985397</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1192,7 +1205,7 @@
         <v>30</v>
       </c>
       <c r="H23">
-        <v>22.52559306992222</v>
+        <v>27.374191195122702</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1218,7 +1231,7 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>42.479372264403999</v>
+        <v>52.396269272093697</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1244,7 +1257,7 @@
         <v>30</v>
       </c>
       <c r="H25">
-        <v>33.577380294014326</v>
+        <v>41.248929431892499</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1271,7 +1284,7 @@
         <v>31</v>
       </c>
       <c r="H26">
-        <v>22.52559306992222</v>
+        <v>27.374191195122702</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1298,7 +1311,7 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>25.630971992138907</v>
+        <v>33.681011860840201</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1325,7 +1338,7 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>28.762234688946158</v>
+        <v>32.668899244950403</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1352,7 +1365,7 @@
         <v>31</v>
       </c>
       <c r="H29">
-        <v>45.270974404336414</v>
+        <v>52.726818609777297</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1379,7 +1392,7 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>42.479372264403999</v>
+        <v>52.396269272093697</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1406,7 +1419,7 @@
         <v>31</v>
       </c>
       <c r="H31">
-        <v>37.574462525537633</v>
+        <v>48.260264459111298</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1433,7 +1446,7 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>30.459006682610031</v>
+        <v>40.127960963309697</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1460,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="H33">
-        <v>30.87813483299399</v>
+        <v>44.6175024377672</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1487,7 +1500,7 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>33.577380294014326</v>
+        <v>41.248929431892499</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1514,7 +1527,7 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>22.52559306992222</v>
+        <v>27.374191195122702</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1541,7 +1554,7 @@
         <v>31</v>
       </c>
       <c r="H36">
-        <v>45.270974404336414</v>
+        <v>52.726818609777297</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1568,7 +1581,7 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>30.459006682610031</v>
+        <v>40.127960963309697</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1595,7 +1608,7 @@
         <v>31</v>
       </c>
       <c r="H38">
-        <v>25.630971992138907</v>
+        <v>33.681011860840201</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1622,7 +1635,7 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>42.479372264403999</v>
+        <v>52.396269272093697</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1649,7 +1662,7 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>30.87813483299399</v>
+        <v>44.6175024377672</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1676,7 +1689,7 @@
         <v>31</v>
       </c>
       <c r="H41">
-        <v>28.762234688946158</v>
+        <v>32.668899244950403</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1703,7 +1716,7 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>37.574462525537633</v>
+        <v>48.260264459111298</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1730,7 +1743,7 @@
         <v>31</v>
       </c>
       <c r="H43">
-        <v>33.577380294014326</v>
+        <v>41.248929431892499</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1756,7 +1769,7 @@
         <v>30</v>
       </c>
       <c r="H44">
-        <v>14.863283003959191</v>
+        <v>18.341969021953201</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1782,7 +1795,7 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>24.666081328747183</v>
+        <v>29.4917023928483</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1808,7 +1821,7 @@
         <v>30</v>
       </c>
       <c r="H46">
-        <v>18.948707492110653</v>
+        <v>21.595314394575301</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1835,7 +1848,7 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>14.863283003959191</v>
+        <v>18.341969021953201</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1862,7 +1875,7 @@
         <v>31</v>
       </c>
       <c r="H48">
-        <v>12.516932042005452</v>
+        <v>16.516921419579099</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1889,7 +1902,7 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>15.334462704555332</v>
+        <v>16.303419634277901</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1916,7 +1929,7 @@
         <v>31</v>
       </c>
       <c r="H50">
-        <v>29.184644064263736</v>
+        <v>36.175074161175097</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1943,7 +1956,7 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>24.666081328747183</v>
+        <v>29.4917023928483</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1970,7 +1983,7 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>21.442701890345862</v>
+        <v>25.540778989238799</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1997,7 +2010,7 @@
         <v>31</v>
       </c>
       <c r="H53">
-        <v>22.684728114482215</v>
+        <v>28.679293047172699</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2024,7 +2037,7 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>17.031227959518453</v>
+        <v>25.700096922078199</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2051,7 +2064,7 @@
         <v>31</v>
       </c>
       <c r="H55">
-        <v>18.948707492110653</v>
+        <v>21.595314394575301</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2078,7 +2091,7 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>14.863283003959191</v>
+        <v>18.341969021953201</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2105,7 +2118,7 @@
         <v>31</v>
       </c>
       <c r="H57">
-        <v>29.184644064263736</v>
+        <v>36.175074161175097</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2132,7 +2145,7 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>22.684728114482215</v>
+        <v>28.679293047172699</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2159,7 +2172,7 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>12.516932042005452</v>
+        <v>16.516921419579099</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2186,7 +2199,7 @@
         <v>31</v>
       </c>
       <c r="H60">
-        <v>24.666081328747183</v>
+        <v>29.4917023928483</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2213,7 +2226,7 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>17.031227959518453</v>
+        <v>25.700096922078199</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2240,7 +2253,7 @@
         <v>31</v>
       </c>
       <c r="H62">
-        <v>15.334462704555332</v>
+        <v>16.303419634277901</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2267,7 +2280,7 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>21.442701890345862</v>
+        <v>25.540778989238799</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2294,7 +2307,7 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>18.948707492110653</v>
+        <v>21.595314394575301</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2320,7 +2333,7 @@
         <v>30</v>
       </c>
       <c r="H65">
-        <v>12.647480320661298</v>
+        <v>19.086042833257999</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2346,7 +2359,7 @@
         <v>30</v>
       </c>
       <c r="H66">
-        <v>34.630458666678862</v>
+        <v>41.1406269722061</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2372,7 +2385,7 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>26.412501399491152</v>
+        <v>31.0369879605934</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2399,7 +2412,7 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>12.647480320661298</v>
+        <v>19.086042833257999</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2426,7 +2439,7 @@
         <v>31</v>
       </c>
       <c r="H69">
-        <v>19.887375246613072</v>
+        <v>24.803351806886901</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2453,7 +2466,7 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>21.436658058643989</v>
+        <v>24.700415938655102</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2480,7 +2493,7 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>30.709295602740212</v>
+        <v>42.530253464767803</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2507,7 +2520,7 @@
         <v>31</v>
       </c>
       <c r="H72">
-        <v>34.630458666678862</v>
+        <v>41.1406269722061</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2534,7 +2547,7 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>29.778224810975772</v>
+        <v>37.018956680354201</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2561,7 +2574,7 @@
         <v>31</v>
       </c>
       <c r="H74">
-        <v>23.3422222955367</v>
+        <v>30.378285829203001</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2588,7 +2601,7 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>26.132835475873403</v>
+        <v>34.421776971673403</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2615,7 +2628,7 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>26.412501399491152</v>
+        <v>31.0369879605934</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2642,7 +2655,7 @@
         <v>31</v>
       </c>
       <c r="H77">
-        <v>12.647480320661298</v>
+        <v>19.086042833257999</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2669,7 +2682,7 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>30.709295602740212</v>
+        <v>42.530253464767803</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2696,7 +2709,7 @@
         <v>31</v>
       </c>
       <c r="H79">
-        <v>23.3422222955367</v>
+        <v>30.378285829203001</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2723,7 +2736,7 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>19.887375246613072</v>
+        <v>24.803351806886901</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2750,7 +2763,7 @@
         <v>31</v>
       </c>
       <c r="H81">
-        <v>34.630458666678862</v>
+        <v>41.1406269722061</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2777,7 +2790,7 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>26.132835475873403</v>
+        <v>34.421776971673403</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2804,7 +2817,7 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>21.436658058643989</v>
+        <v>24.700415938655102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2831,7 +2844,7 @@
         <v>31</v>
       </c>
       <c r="H84">
-        <v>29.778224810975772</v>
+        <v>37.018956680354201</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2858,7 +2871,7 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>26.412501399491152</v>
+        <v>31.0369879605934</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2884,7 +2897,7 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>37.445947992418873</v>
+        <v>44.736774113230403</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2910,7 +2923,7 @@
         <v>30</v>
       </c>
       <c r="H87">
-        <v>86.176393861946025</v>
+        <v>107.97564952080199</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2936,7 +2949,7 @@
         <v>30</v>
       </c>
       <c r="H88">
-        <v>65.173349993583614</v>
+        <v>84.130945315549198</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2963,7 +2976,7 @@
         <v>31</v>
       </c>
       <c r="H89">
-        <v>37.445947992418873</v>
+        <v>44.736774113230403</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2990,7 +3003,7 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>55.070766745015582</v>
+        <v>67.729608820744801</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3017,7 +3030,7 @@
         <v>31</v>
       </c>
       <c r="H91">
-        <v>53.568322440310588</v>
+        <v>65.215907915517406</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3044,7 +3057,7 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>73.532349770207887</v>
+        <v>92.322621401152901</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3071,7 +3084,7 @@
         <v>31</v>
       </c>
       <c r="H93">
-        <v>86.176393861946025</v>
+        <v>107.97564952080199</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3098,7 +3111,7 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>70.487367149683806</v>
+        <v>98.555613528093104</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3125,7 +3138,7 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>52.627414604551753</v>
+        <v>66.866236469509005</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3152,7 +3165,7 @@
         <v>31</v>
       </c>
       <c r="H96">
-        <v>65.840694013826536</v>
+        <v>89.8966022232174</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3179,7 +3192,7 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>65.173349993583614</v>
+        <v>84.130945315549198</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3206,7 +3219,7 @@
         <v>31</v>
       </c>
       <c r="H98">
-        <v>37.445947992418873</v>
+        <v>44.736774113230403</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3233,7 +3246,7 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>73.532349770207887</v>
+        <v>92.322621401152901</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3260,7 +3273,7 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>52.627414604551753</v>
+        <v>66.866236469509005</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3287,7 +3300,7 @@
         <v>31</v>
       </c>
       <c r="H101">
-        <v>55.070766745015582</v>
+        <v>67.729608820744801</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3314,7 +3327,7 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>86.176393861946025</v>
+        <v>107.97564952080199</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3341,7 +3354,7 @@
         <v>31</v>
       </c>
       <c r="H103">
-        <v>65.840694013826536</v>
+        <v>89.8966022232174</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3368,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>53.568322440310588</v>
+        <v>65.215907915517406</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3395,7 +3408,7 @@
         <v>31</v>
       </c>
       <c r="H105">
-        <v>70.487367149683806</v>
+        <v>98.555613528093104</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3422,7 +3435,7 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>65.173349993583614</v>
+        <v>84.130945315549198</v>
       </c>
     </row>
   </sheetData>
@@ -3436,7 +3449,7 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H2" sqref="H2:H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3493,7 +3506,7 @@
         <v>30</v>
       </c>
       <c r="H2">
-        <v>23.914904115745266</v>
+        <v>27.229592327467</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3519,7 +3532,7 @@
         <v>30</v>
       </c>
       <c r="H3">
-        <v>64.049140276530721</v>
+        <v>77.063516705814607</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3545,7 +3558,7 @@
         <v>30</v>
       </c>
       <c r="H4">
-        <v>53.206444387818358</v>
+        <v>61.525916422327001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3572,7 +3585,7 @@
         <v>31</v>
       </c>
       <c r="H5">
-        <v>23.914904115745266</v>
+        <v>27.229592327467</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3599,7 +3612,7 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>42.382853303784444</v>
+        <v>49.163113337009001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3626,7 +3639,7 @@
         <v>31</v>
       </c>
       <c r="H7">
-        <v>46.022027110459419</v>
+        <v>49.505484573390397</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3653,7 +3666,7 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>54.337081254789062</v>
+        <v>62.202052573427501</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3680,7 +3693,7 @@
         <v>31</v>
       </c>
       <c r="H9">
-        <v>64.049140276530721</v>
+        <v>77.063516705814607</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3707,7 +3720,7 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>59.718786449071814</v>
+        <v>71.146611672978693</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3734,7 +3747,7 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>33.544743497265671</v>
+        <v>42.6835112222183</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3761,7 +3774,7 @@
         <v>31</v>
       </c>
       <c r="H12">
-        <v>49.707532072538044</v>
+        <v>65.758177979678393</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3788,7 +3801,7 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>53.206444387818358</v>
+        <v>61.525916422327001</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3815,7 +3828,7 @@
         <v>31</v>
       </c>
       <c r="H14">
-        <v>23.914904115745266</v>
+        <v>27.229592327467</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3842,7 +3855,7 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>54.337081254789062</v>
+        <v>62.202052573427501</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3869,7 +3882,7 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>33.544743497265671</v>
+        <v>42.6835112222183</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3896,7 +3909,7 @@
         <v>31</v>
       </c>
       <c r="H17">
-        <v>42.382853303784444</v>
+        <v>49.163113337009001</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3923,7 +3936,7 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>64.049140276530721</v>
+        <v>77.063516705814607</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3950,7 +3963,7 @@
         <v>31</v>
       </c>
       <c r="H19">
-        <v>49.707532072538044</v>
+        <v>65.758177979678393</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3977,7 +3990,7 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>46.022027110459419</v>
+        <v>49.505484573390397</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4004,7 +4017,7 @@
         <v>31</v>
       </c>
       <c r="H21">
-        <v>59.718786449071814</v>
+        <v>71.146611672978693</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4031,7 +4044,7 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>53.206444387818358</v>
+        <v>61.525916422327001</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4057,7 +4070,7 @@
         <v>30</v>
       </c>
       <c r="H23">
-        <v>38.200480689820765</v>
+        <v>44.571016847934402</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4083,7 +4096,7 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>62.953878405121053</v>
+        <v>74.970421137043999</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4109,7 +4122,7 @@
         <v>30</v>
       </c>
       <c r="H25">
-        <v>49.804313462224961</v>
+        <v>61.4749362642821</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4136,7 +4149,7 @@
         <v>31</v>
       </c>
       <c r="H26">
-        <v>38.200480689820765</v>
+        <v>44.571016847934402</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4163,7 +4176,7 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>40.638334795469497</v>
+        <v>51.6047332899144</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4190,7 +4203,7 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>42.940506588897449</v>
+        <v>48.578377077238002</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4217,7 +4230,7 @@
         <v>31</v>
       </c>
       <c r="H29">
-        <v>66.900412362479372</v>
+        <v>76.389668206843794</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4244,7 +4257,7 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>62.953878405121053</v>
+        <v>74.970421137043999</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4271,7 +4284,7 @@
         <v>31</v>
       </c>
       <c r="H31">
-        <v>54.052947088289841</v>
+        <v>69.501818402411303</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4298,7 +4311,7 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>49.670362519565245</v>
+        <v>62.649001528704297</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4325,7 +4338,7 @@
         <v>31</v>
       </c>
       <c r="H33">
-        <v>48.11597452749308</v>
+        <v>67.600561203181698</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4352,7 +4365,7 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>49.804313462224961</v>
+        <v>61.4749362642821</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4379,7 +4392,7 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>38.200480689820765</v>
+        <v>44.571016847934402</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -4406,7 +4419,7 @@
         <v>31</v>
       </c>
       <c r="H36">
-        <v>66.900412362479372</v>
+        <v>76.389668206843794</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -4433,7 +4446,7 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>49.670362519565245</v>
+        <v>62.649001528704297</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4460,7 +4473,7 @@
         <v>31</v>
       </c>
       <c r="H38">
-        <v>40.638334795469497</v>
+        <v>51.6047332899144</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -4487,7 +4500,7 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>62.953878405121053</v>
+        <v>74.970421137043999</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4514,7 +4527,7 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>48.11597452749308</v>
+        <v>67.600561203181698</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4541,7 +4554,7 @@
         <v>31</v>
       </c>
       <c r="H41">
-        <v>42.940506588897449</v>
+        <v>48.578377077238002</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -4568,7 +4581,7 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>54.052947088289841</v>
+        <v>69.501818402411303</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4595,7 +4608,7 @@
         <v>31</v>
       </c>
       <c r="H43">
-        <v>49.804313462224961</v>
+        <v>61.4749362642821</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4621,7 +4634,7 @@
         <v>30</v>
       </c>
       <c r="H44">
-        <v>24.222746539569776</v>
+        <v>28.509458647210302</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4647,7 +4660,7 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>36.152714589720482</v>
+        <v>40.308585584768203</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4673,7 +4686,7 @@
         <v>30</v>
       </c>
       <c r="H46">
-        <v>26.241094008865197</v>
+        <v>30.382899741386598</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4700,7 +4713,7 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>24.222746539569776</v>
+        <v>28.509458647210302</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4727,7 +4740,7 @@
         <v>31</v>
       </c>
       <c r="H48">
-        <v>18.628230192255447</v>
+        <v>24.055470345662901</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4754,7 +4767,7 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>21.492878401060128</v>
+        <v>22.693904065548399</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4781,7 +4794,7 @@
         <v>31</v>
       </c>
       <c r="H50">
-        <v>41.23499893124594</v>
+        <v>49.863491087408399</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4808,7 +4821,7 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>36.152714589720482</v>
+        <v>40.308585584768203</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4835,7 +4848,7 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>29.174047592690709</v>
+        <v>34.738347159198</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4862,7 +4875,7 @@
         <v>31</v>
       </c>
       <c r="H53">
-        <v>34.804678537245657</v>
+        <v>42.316034011410999</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4889,7 +4902,7 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>25.154702985902865</v>
+        <v>36.870497936106801</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4916,7 +4929,7 @@
         <v>31</v>
       </c>
       <c r="H55">
-        <v>26.241094008865197</v>
+        <v>30.382899741386598</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4943,7 +4956,7 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>24.222746539569776</v>
+        <v>28.509458647210302</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4970,7 +4983,7 @@
         <v>31</v>
       </c>
       <c r="H57">
-        <v>41.23499893124594</v>
+        <v>49.863491087408399</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4997,7 +5010,7 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>34.804678537245657</v>
+        <v>42.316034011410999</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -5024,7 +5037,7 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>18.628230192255447</v>
+        <v>24.055470345662901</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5051,7 +5064,7 @@
         <v>31</v>
       </c>
       <c r="H60">
-        <v>36.152714589720482</v>
+        <v>40.308585584768203</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5078,7 +5091,7 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>25.154702985902865</v>
+        <v>36.870497936106801</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -5105,7 +5118,7 @@
         <v>31</v>
       </c>
       <c r="H62">
-        <v>21.492878401060128</v>
+        <v>22.693904065548399</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -5132,7 +5145,7 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>29.174047592690709</v>
+        <v>34.738347159198</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5159,7 +5172,7 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>26.241094008865197</v>
+        <v>30.382899741386598</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -5185,7 +5198,7 @@
         <v>30</v>
       </c>
       <c r="H65">
-        <v>21.898265339818185</v>
+        <v>30.620226843906501</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5211,7 +5224,7 @@
         <v>30</v>
       </c>
       <c r="H66">
-        <v>48.480573970543986</v>
+        <v>56.7471477889857</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5237,7 +5250,7 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>37.622091351009374</v>
+        <v>44.0168029817386</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -5264,7 +5277,7 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>21.898265339818185</v>
+        <v>30.620226843906501</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -5291,7 +5304,7 @@
         <v>31</v>
       </c>
       <c r="H69">
-        <v>30.095127697575172</v>
+        <v>36.426862826310398</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5318,7 +5331,7 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>30.490455154447211</v>
+        <v>34.895140141101002</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5345,7 +5358,7 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>44.594606026600665</v>
+        <v>59.621841831387698</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5372,7 +5385,7 @@
         <v>31</v>
       </c>
       <c r="H72">
-        <v>48.480573970543986</v>
+        <v>56.7471477889857</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5399,7 +5412,7 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>41.223737620699204</v>
+        <v>50.914373835471402</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5426,7 +5439,7 @@
         <v>31</v>
       </c>
       <c r="H74">
-        <v>36.77195997541741</v>
+        <v>45.999992406164601</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -5453,7 +5466,7 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>39.026828607410657</v>
+        <v>49.877164109644099</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5480,7 +5493,7 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>37.622091351009374</v>
+        <v>44.0168029817386</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -5507,7 +5520,7 @@
         <v>31</v>
       </c>
       <c r="H77">
-        <v>21.898265339818185</v>
+        <v>30.620226843906501</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5534,7 +5547,7 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>44.594606026600665</v>
+        <v>59.621841831387698</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -5561,7 +5574,7 @@
         <v>31</v>
       </c>
       <c r="H79">
-        <v>36.77195997541741</v>
+        <v>45.999992406164601</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -5588,7 +5601,7 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>30.095127697575172</v>
+        <v>36.426862826310398</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -5615,7 +5628,7 @@
         <v>31</v>
       </c>
       <c r="H81">
-        <v>48.480573970543986</v>
+        <v>56.7471477889857</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5642,7 +5655,7 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>39.026828607410657</v>
+        <v>49.877164109644099</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5669,7 +5682,7 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>30.490455154447211</v>
+        <v>34.895140141101002</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -5696,7 +5709,7 @@
         <v>31</v>
       </c>
       <c r="H84">
-        <v>41.223737620699204</v>
+        <v>50.914373835471402</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -5723,7 +5736,7 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>37.622091351009374</v>
+        <v>44.0168029817386</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5749,7 +5762,7 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>61.371911284365972</v>
+        <v>70.694351762846097</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5775,7 +5788,7 @@
         <v>30</v>
       </c>
       <c r="H87">
-        <v>129.80736018549035</v>
+        <v>153.88998163990601</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5801,7 +5814,7 @@
         <v>30</v>
       </c>
       <c r="H88">
-        <v>98.861263111797925</v>
+        <v>126.66531876590599</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5828,7 +5841,7 @@
         <v>31</v>
       </c>
       <c r="H89">
-        <v>61.371911284365972</v>
+        <v>70.694351762846097</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5855,7 +5868,7 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>85.937640897478033</v>
+        <v>102.54794062702901</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5882,7 +5895,7 @@
         <v>31</v>
       </c>
       <c r="H91">
-        <v>80.911994498402592</v>
+        <v>98.061536855948404</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5909,7 +5922,7 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>107.85899404869046</v>
+        <v>131.95936577302399</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5936,7 +5949,7 @@
         <v>31</v>
       </c>
       <c r="H93">
-        <v>129.80736018549035</v>
+        <v>153.88998163990601</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5963,7 +5976,7 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>102.357813722201</v>
+        <v>142.318383736236</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5990,7 +6003,7 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>83.964092893388084</v>
+        <v>102.528031711106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6017,7 +6030,7 @@
         <v>31</v>
       </c>
       <c r="H96">
-        <v>103.00583794686349</v>
+        <v>134.92102498075801</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6044,7 +6057,7 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>98.861263111797925</v>
+        <v>126.66531876590599</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6071,7 +6084,7 @@
         <v>31</v>
       </c>
       <c r="H98">
-        <v>61.371911284365972</v>
+        <v>70.694351762846097</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6098,7 +6111,7 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>107.85899404869046</v>
+        <v>131.95936577302399</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6125,7 +6138,7 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>83.964092893388084</v>
+        <v>102.528031711106</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6152,7 +6165,7 @@
         <v>31</v>
       </c>
       <c r="H101">
-        <v>85.937640897478033</v>
+        <v>102.54794062702901</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6179,7 +6192,7 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>129.80736018549035</v>
+        <v>153.88998163990601</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -6206,7 +6219,7 @@
         <v>31</v>
       </c>
       <c r="H103">
-        <v>103.00583794686349</v>
+        <v>134.92102498075801</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6233,7 +6246,7 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>80.911994498402592</v>
+        <v>98.061536855948404</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -6260,7 +6273,7 @@
         <v>31</v>
       </c>
       <c r="H105">
-        <v>102.357813722201</v>
+        <v>142.318383736236</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6287,7 +6300,7 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>98.861263111797925</v>
+        <v>126.66531876590599</v>
       </c>
     </row>
   </sheetData>
@@ -6301,7 +6314,7 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H2" sqref="H2:H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6358,7 +6371,7 @@
         <v>30</v>
       </c>
       <c r="H2">
-        <v>0.53231809928545404</v>
+        <v>1.5028457797769601</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6384,7 +6397,7 @@
         <v>30</v>
       </c>
       <c r="H3">
-        <v>13.250638456540583</v>
+        <v>18.249856203763098</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6410,7 +6423,7 @@
         <v>30</v>
       </c>
       <c r="H4">
-        <v>11.182621335279149</v>
+        <v>13.699588914382099</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6437,7 +6450,7 @@
         <v>31</v>
       </c>
       <c r="H5">
-        <v>0.53231809928545404</v>
+        <v>1.5028457797769601</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6464,7 +6477,7 @@
         <v>31</v>
       </c>
       <c r="H6">
-        <v>7.1650137851172273</v>
+        <v>8.8333780375447901</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6491,7 +6504,7 @@
         <v>31</v>
       </c>
       <c r="H7">
-        <v>9.7946095034876031</v>
+        <v>11.1811293657571</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6518,7 +6531,7 @@
         <v>31</v>
       </c>
       <c r="H8">
-        <v>11.17670041862735</v>
+        <v>14.8857667706349</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6545,7 +6558,7 @@
         <v>31</v>
       </c>
       <c r="H9">
-        <v>13.250638456540583</v>
+        <v>18.249856203763098</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6572,7 +6585,7 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>14.255826232132426</v>
+        <v>17.822694072522399</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6599,7 +6612,7 @@
         <v>31</v>
       </c>
       <c r="H11">
-        <v>2.9635452866970211</v>
+        <v>5.7636551687802902</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6626,7 +6639,7 @@
         <v>31</v>
       </c>
       <c r="H12">
-        <v>8.1391341983152206</v>
+        <v>12.602743817553099</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6653,7 +6666,7 @@
         <v>31</v>
       </c>
       <c r="H13">
-        <v>11.182621335279149</v>
+        <v>13.699588914382099</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6680,7 +6693,7 @@
         <v>31</v>
       </c>
       <c r="H14">
-        <v>0.53231809928545404</v>
+        <v>1.5028457797769601</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6707,7 +6720,7 @@
         <v>31</v>
       </c>
       <c r="H15">
-        <v>11.17670041862735</v>
+        <v>14.8857667706349</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6734,7 +6747,7 @@
         <v>31</v>
       </c>
       <c r="H16">
-        <v>2.9635452866970211</v>
+        <v>5.7636551687802902</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6761,7 +6774,7 @@
         <v>31</v>
       </c>
       <c r="H17">
-        <v>7.1650137851172273</v>
+        <v>8.8333780375447901</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6788,7 +6801,7 @@
         <v>31</v>
       </c>
       <c r="H18">
-        <v>13.250638456540583</v>
+        <v>18.249856203763098</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6815,7 +6828,7 @@
         <v>31</v>
       </c>
       <c r="H19">
-        <v>8.1391341983152206</v>
+        <v>12.602743817553099</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6842,7 +6855,7 @@
         <v>31</v>
       </c>
       <c r="H20">
-        <v>9.7946095034876031</v>
+        <v>11.1811293657571</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6869,7 +6882,7 @@
         <v>31</v>
       </c>
       <c r="H21">
-        <v>14.255826232132426</v>
+        <v>17.822694072522399</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6896,7 +6909,7 @@
         <v>31</v>
       </c>
       <c r="H22">
-        <v>11.182621335279149</v>
+        <v>13.699588914382099</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6922,7 +6935,7 @@
         <v>30</v>
       </c>
       <c r="H23">
-        <v>2.6199957149947961</v>
+        <v>4.36337387321782</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6948,7 +6961,7 @@
         <v>30</v>
       </c>
       <c r="H24">
-        <v>12.251988831668575</v>
+        <v>16.965698014201699</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6974,7 +6987,7 @@
         <v>30</v>
       </c>
       <c r="H25">
-        <v>9.6945351137118454</v>
+        <v>12.1359105502045</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7001,7 +7014,7 @@
         <v>31</v>
       </c>
       <c r="H26">
-        <v>2.6199957149947961</v>
+        <v>4.36337387321782</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -7028,7 +7041,7 @@
         <v>31</v>
       </c>
       <c r="H27">
-        <v>5.941789471744924</v>
+        <v>8.54608302430848</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7055,7 +7068,7 @@
         <v>31</v>
       </c>
       <c r="H28">
-        <v>8.5696238944214009</v>
+        <v>9.8501058054343993</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7082,7 +7095,7 @@
         <v>31</v>
       </c>
       <c r="H29">
-        <v>13.253827106482502</v>
+        <v>16.802297456993301</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -7109,7 +7122,7 @@
         <v>31</v>
       </c>
       <c r="H30">
-        <v>12.251988831668575</v>
+        <v>16.965698014201699</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -7136,7 +7149,7 @@
         <v>31</v>
       </c>
       <c r="H31">
-        <v>12.384277185104203</v>
+        <v>15.811528247077099</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -7163,7 +7176,7 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>5.2165990542253136</v>
+        <v>8.7803188716182596</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -7190,7 +7203,7 @@
         <v>31</v>
       </c>
       <c r="H33">
-        <v>7.4000295744600368</v>
+        <v>11.7503512930334</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -7217,7 +7230,7 @@
         <v>31</v>
       </c>
       <c r="H34">
-        <v>9.6945351137118454</v>
+        <v>12.1359105502045</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -7244,7 +7257,7 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>2.6199957149947961</v>
+        <v>4.36337387321782</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -7271,7 +7284,7 @@
         <v>31</v>
       </c>
       <c r="H36">
-        <v>13.253827106482502</v>
+        <v>16.802297456993301</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7298,7 +7311,7 @@
         <v>31</v>
       </c>
       <c r="H37">
-        <v>5.2165990542253136</v>
+        <v>8.7803188716182596</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7325,7 +7338,7 @@
         <v>31</v>
       </c>
       <c r="H38">
-        <v>5.941789471744924</v>
+        <v>8.54608302430848</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7352,7 +7365,7 @@
         <v>31</v>
       </c>
       <c r="H39">
-        <v>12.251988831668575</v>
+        <v>16.965698014201699</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7379,7 +7392,7 @@
         <v>31</v>
       </c>
       <c r="H40">
-        <v>7.4000295744600368</v>
+        <v>11.7503512930334</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7406,7 +7419,7 @@
         <v>31</v>
       </c>
       <c r="H41">
-        <v>8.5696238944214009</v>
+        <v>9.8501058054343993</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7433,7 +7446,7 @@
         <v>31</v>
       </c>
       <c r="H42">
-        <v>12.384277185104203</v>
+        <v>15.811528247077099</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7460,7 +7473,7 @@
         <v>31</v>
       </c>
       <c r="H43">
-        <v>9.6945351137118454</v>
+        <v>12.1359105502045</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7486,7 +7499,7 @@
         <v>30</v>
       </c>
       <c r="H44">
-        <v>1.8804287468836631</v>
+        <v>3.4610261162820302</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7512,7 +7525,7 @@
         <v>30</v>
       </c>
       <c r="H45">
-        <v>8.2275374013000189</v>
+        <v>11.087417593540501</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7538,7 +7551,7 @@
         <v>30</v>
       </c>
       <c r="H46">
-        <v>6.62022427899739</v>
+        <v>7.61444541333384</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7565,7 +7578,7 @@
         <v>31</v>
       </c>
       <c r="H47">
-        <v>1.8804287468836631</v>
+        <v>3.4610261162820302</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7592,7 +7605,7 @@
         <v>31</v>
       </c>
       <c r="H48">
-        <v>3.5052282326255422</v>
+        <v>4.9637584987908001</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7619,7 +7632,7 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>5.5584018201299958</v>
+        <v>6.0459943183765601</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7646,7 +7659,7 @@
         <v>31</v>
       </c>
       <c r="H50">
-        <v>9.7049736436420666</v>
+        <v>13.4200673651</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7673,7 +7686,7 @@
         <v>31</v>
       </c>
       <c r="H51">
-        <v>8.2275374013000189</v>
+        <v>11.087417593540501</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7700,7 +7713,7 @@
         <v>31</v>
       </c>
       <c r="H52">
-        <v>8.3627076324950682</v>
+        <v>9.9953384999972492</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7727,7 +7740,7 @@
         <v>31</v>
       </c>
       <c r="H53">
-        <v>4.9212591497607772</v>
+        <v>7.7104582582508199</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7754,7 +7767,7 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>4.8911877503444172</v>
+        <v>8.0280564615351508</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7781,7 +7794,7 @@
         <v>31</v>
       </c>
       <c r="H55">
-        <v>6.62022427899739</v>
+        <v>7.61444541333384</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7808,7 +7821,7 @@
         <v>31</v>
       </c>
       <c r="H56">
-        <v>1.8804287468836631</v>
+        <v>3.4610261162820302</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7835,7 +7848,7 @@
         <v>31</v>
       </c>
       <c r="H57">
-        <v>9.7049736436420666</v>
+        <v>13.4200673651</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7862,7 +7875,7 @@
         <v>31</v>
       </c>
       <c r="H58">
-        <v>4.9212591497607772</v>
+        <v>7.7104582582508199</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7889,7 +7902,7 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>3.5052282326255422</v>
+        <v>4.9637584987908001</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7916,7 +7929,7 @@
         <v>31</v>
       </c>
       <c r="H60">
-        <v>8.2275374013000189</v>
+        <v>11.087417593540501</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7943,7 +7956,7 @@
         <v>31</v>
       </c>
       <c r="H61">
-        <v>4.8911877503444172</v>
+        <v>8.0280564615351508</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7970,7 +7983,7 @@
         <v>31</v>
       </c>
       <c r="H62">
-        <v>5.5584018201299958</v>
+        <v>6.0459943183765601</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7997,7 +8010,7 @@
         <v>31</v>
       </c>
       <c r="H63">
-        <v>8.3627076324950682</v>
+        <v>9.9953384999972492</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -8024,7 +8037,7 @@
         <v>31</v>
       </c>
       <c r="H64">
-        <v>6.62022427899739</v>
+        <v>7.61444541333384</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -8050,7 +8063,7 @@
         <v>30</v>
       </c>
       <c r="H65">
-        <v>0.56022827545801701</v>
+        <v>2.9720227285751801</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -8076,7 +8089,7 @@
         <v>30</v>
       </c>
       <c r="H66">
-        <v>11.322430441962402</v>
+        <v>15.0273094616959</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -8102,7 +8115,7 @@
         <v>30</v>
       </c>
       <c r="H67">
-        <v>8.727499911912199</v>
+        <v>10.5938927382511</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -8129,7 +8142,7 @@
         <v>31</v>
       </c>
       <c r="H68">
-        <v>0.56022827545801701</v>
+        <v>2.9720227285751801</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -8156,7 +8169,7 @@
         <v>31</v>
       </c>
       <c r="H69">
-        <v>5.2920366216069965</v>
+        <v>7.1992043241988002</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -8183,7 +8196,7 @@
         <v>31</v>
       </c>
       <c r="H70">
-        <v>7.330680622823996</v>
+        <v>8.6533537576116597</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -8210,7 +8223,7 @@
         <v>31</v>
       </c>
       <c r="H71">
-        <v>9.3132716213501308</v>
+        <v>15.110432724264699</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -8237,7 +8250,7 @@
         <v>31</v>
       </c>
       <c r="H72">
-        <v>11.322430441962402</v>
+        <v>15.0273094616959</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -8264,7 +8277,7 @@
         <v>31</v>
       </c>
       <c r="H73">
-        <v>10.923187339188061</v>
+        <v>13.8932915526894</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -8291,7 +8304,7 @@
         <v>31</v>
       </c>
       <c r="H74">
-        <v>4.5246554303974227</v>
+        <v>7.4578774003006103</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -8318,7 +8331,7 @@
         <v>31</v>
       </c>
       <c r="H75">
-        <v>7.0981924113621133</v>
+        <v>10.4314777207536</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -8345,7 +8358,7 @@
         <v>31</v>
       </c>
       <c r="H76">
-        <v>8.727499911912199</v>
+        <v>10.5938927382511</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8372,7 +8385,7 @@
         <v>31</v>
       </c>
       <c r="H77">
-        <v>0.56022827545801701</v>
+        <v>2.9720227285751801</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8399,7 +8412,7 @@
         <v>31</v>
       </c>
       <c r="H78">
-        <v>9.3132716213501308</v>
+        <v>15.110432724264699</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -8426,7 +8439,7 @@
         <v>31</v>
       </c>
       <c r="H79">
-        <v>4.5246554303974227</v>
+        <v>7.4578774003006103</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8453,7 +8466,7 @@
         <v>31</v>
       </c>
       <c r="H80">
-        <v>5.2920366216069965</v>
+        <v>7.1992043241988002</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8480,7 +8493,7 @@
         <v>31</v>
       </c>
       <c r="H81">
-        <v>11.322430441962402</v>
+        <v>15.0273094616959</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8507,7 +8520,7 @@
         <v>31</v>
       </c>
       <c r="H82">
-        <v>7.0981924113621133</v>
+        <v>10.4314777207536</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8534,7 +8547,7 @@
         <v>31</v>
       </c>
       <c r="H83">
-        <v>7.330680622823996</v>
+        <v>8.6533537576116597</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8561,7 +8574,7 @@
         <v>31</v>
       </c>
       <c r="H84">
-        <v>10.923187339188061</v>
+        <v>13.8932915526894</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8588,7 +8601,7 @@
         <v>31</v>
       </c>
       <c r="H85">
-        <v>8.727499911912199</v>
+        <v>10.5938927382511</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8614,7 +8627,7 @@
         <v>30</v>
       </c>
       <c r="H86">
-        <v>6.0724945858005199</v>
+        <v>8.8616334028251398</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8640,7 +8653,7 @@
         <v>30</v>
       </c>
       <c r="H87">
-        <v>23.645618590819218</v>
+        <v>34.623728943740502</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8666,7 +8679,7 @@
         <v>30</v>
       </c>
       <c r="H88">
-        <v>17.460901156086262</v>
+        <v>23.401281396791301</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8693,7 +8706,7 @@
         <v>31</v>
       </c>
       <c r="H89">
-        <v>6.0724945858005199</v>
+        <v>8.8616334028251398</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8720,7 +8733,7 @@
         <v>31</v>
       </c>
       <c r="H90">
-        <v>12.91198226185943</v>
+        <v>17.553320492165</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8747,7 +8760,7 @@
         <v>31</v>
       </c>
       <c r="H91">
-        <v>14.893062597547212</v>
+        <v>18.498181803900899</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8774,7 +8787,7 @@
         <v>31</v>
       </c>
       <c r="H92">
-        <v>22.053934439816498</v>
+        <v>30.5590163462319</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8801,7 +8814,7 @@
         <v>31</v>
       </c>
       <c r="H93">
-        <v>23.645618590819218</v>
+        <v>34.623728943740502</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8828,7 +8841,7 @@
         <v>31</v>
       </c>
       <c r="H94">
-        <v>21.923760939378937</v>
+        <v>31.183006385973702</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8855,7 +8868,7 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <v>10.519181924857419</v>
+        <v>16.081120750644502</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8882,7 +8895,7 @@
         <v>31</v>
       </c>
       <c r="H96">
-        <v>15.216754410256399</v>
+        <v>24.0761526027222</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8909,7 +8922,7 @@
         <v>31</v>
       </c>
       <c r="H97">
-        <v>17.460901156086262</v>
+        <v>23.401281396791301</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8936,7 +8949,7 @@
         <v>31</v>
       </c>
       <c r="H98">
-        <v>6.0724945858005199</v>
+        <v>8.8616334028251398</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8963,7 +8976,7 @@
         <v>31</v>
       </c>
       <c r="H99">
-        <v>22.053934439816498</v>
+        <v>30.5590163462319</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8990,7 +9003,7 @@
         <v>31</v>
       </c>
       <c r="H100">
-        <v>10.519181924857419</v>
+        <v>16.081120750644502</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -9017,7 +9030,7 @@
         <v>31</v>
       </c>
       <c r="H101">
-        <v>12.91198226185943</v>
+        <v>17.553320492165</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -9044,7 +9057,7 @@
         <v>31</v>
       </c>
       <c r="H102">
-        <v>23.645618590819218</v>
+        <v>34.623728943740502</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -9071,7 +9084,7 @@
         <v>31</v>
       </c>
       <c r="H103">
-        <v>15.216754410256399</v>
+        <v>24.0761526027222</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -9098,7 +9111,7 @@
         <v>31</v>
       </c>
       <c r="H104">
-        <v>14.893062597547212</v>
+        <v>18.498181803900899</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -9125,7 +9138,7 @@
         <v>31</v>
       </c>
       <c r="H105">
-        <v>21.923760939378937</v>
+        <v>31.183006385973702</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -9152,7 +9165,7 @@
         <v>31</v>
       </c>
       <c r="H106">
-        <v>17.460901156086262</v>
+        <v>23.401281396791301</v>
       </c>
     </row>
   </sheetData>
@@ -9163,10 +9176,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E740C2F-8631-3C47-99CB-F113C4855E3E}">
-  <dimension ref="A1:AG16"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9360,91 +9373,91 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>13.651150723245463</v>
+        <v>16.310906134223099</v>
       </c>
       <c r="C4">
-        <v>27.771284831479356</v>
+        <v>32.667065683349797</v>
       </c>
       <c r="D4">
-        <v>31.404129292095579</v>
+        <v>34.250723343611199</v>
       </c>
       <c r="E4">
-        <v>37.235770404583008</v>
+        <v>43.8238203652975</v>
       </c>
       <c r="F4">
-        <v>44.378945430364297</v>
+        <v>54.324663070243901</v>
       </c>
       <c r="G4">
-        <v>42.046388868435848</v>
+        <v>50.633023885381803</v>
       </c>
       <c r="H4">
-        <v>20.51015575834381</v>
+        <v>27.505480578470099</v>
       </c>
       <c r="I4">
-        <v>32.355832407566979</v>
+        <v>44.375690619271097</v>
       </c>
       <c r="J4">
-        <v>36.686181405972</v>
+        <v>42.574998274985397</v>
       </c>
       <c r="L4" t="s">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>23.914904115745266</v>
+        <v>27.229592327467</v>
       </c>
       <c r="N4">
-        <v>42.382853303784444</v>
+        <v>49.163113337009001</v>
       </c>
       <c r="O4">
-        <v>46.022027110459419</v>
+        <v>49.505484573390397</v>
       </c>
       <c r="P4">
-        <v>54.337081254789062</v>
+        <v>62.202052573427501</v>
       </c>
       <c r="Q4">
-        <v>64.049140276530721</v>
+        <v>77.063516705814607</v>
       </c>
       <c r="R4">
-        <v>59.718786449071814</v>
+        <v>71.146611672978693</v>
       </c>
       <c r="S4">
-        <v>33.544743497265671</v>
+        <v>42.6835112222183</v>
       </c>
       <c r="T4">
-        <v>49.707532072538044</v>
+        <v>65.758177979678393</v>
       </c>
       <c r="U4">
-        <v>53.206444387818358</v>
+        <v>61.525916422327001</v>
       </c>
       <c r="W4" t="s">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.53231809928545404</v>
+        <v>1.5028457797769601</v>
       </c>
       <c r="Y4">
-        <v>7.1650137851172273</v>
+        <v>8.8333780375447901</v>
       </c>
       <c r="Z4">
-        <v>9.7946095034876031</v>
+        <v>11.1811293657571</v>
       </c>
       <c r="AA4">
-        <v>11.17670041862735</v>
+        <v>14.8857667706349</v>
       </c>
       <c r="AB4">
-        <v>13.250638456540583</v>
+        <v>18.249856203763098</v>
       </c>
       <c r="AC4">
-        <v>14.255826232132426</v>
+        <v>17.822694072522399</v>
       </c>
       <c r="AD4">
-        <v>2.9635452866970211</v>
+        <v>5.7636551687802902</v>
       </c>
       <c r="AE4">
-        <v>8.1391341983152206</v>
+        <v>12.602743817553099</v>
       </c>
       <c r="AF4">
-        <v>11.182621335279149</v>
+        <v>13.699588914382099</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -9452,91 +9465,91 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>22.52559306992222</v>
+        <v>27.374191195122702</v>
       </c>
       <c r="C5">
-        <v>25.630971992138907</v>
+        <v>33.681011860840201</v>
       </c>
       <c r="D5">
-        <v>28.762234688946158</v>
+        <v>32.668899244950403</v>
       </c>
       <c r="E5">
-        <v>45.270974404336414</v>
+        <v>52.726818609777297</v>
       </c>
       <c r="F5">
-        <v>42.479372264403999</v>
+        <v>52.396269272093697</v>
       </c>
       <c r="G5">
-        <v>37.574462525537633</v>
+        <v>48.260264459111298</v>
       </c>
       <c r="H5">
-        <v>30.459006682610031</v>
+        <v>40.127960963309697</v>
       </c>
       <c r="I5">
-        <v>30.87813483299399</v>
+        <v>44.6175024377672</v>
       </c>
       <c r="J5">
-        <v>33.577380294014326</v>
+        <v>41.248929431892499</v>
       </c>
       <c r="L5" t="s">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.200480689820765</v>
+        <v>44.571016847934402</v>
       </c>
       <c r="N5">
-        <v>40.638334795469497</v>
+        <v>51.6047332899144</v>
       </c>
       <c r="O5">
-        <v>42.940506588897449</v>
+        <v>48.578377077238002</v>
       </c>
       <c r="P5">
-        <v>66.900412362479372</v>
+        <v>76.389668206843794</v>
       </c>
       <c r="Q5">
-        <v>62.953878405121053</v>
+        <v>74.970421137043999</v>
       </c>
       <c r="R5">
-        <v>54.052947088289841</v>
+        <v>69.501818402411303</v>
       </c>
       <c r="S5">
-        <v>49.670362519565245</v>
+        <v>62.649001528704297</v>
       </c>
       <c r="T5">
-        <v>48.11597452749308</v>
+        <v>67.600561203181698</v>
       </c>
       <c r="U5">
-        <v>49.804313462224961</v>
+        <v>61.4749362642821</v>
       </c>
       <c r="W5" t="s">
         <v>1</v>
       </c>
       <c r="X5">
-        <v>2.6199957149947961</v>
+        <v>4.36337387321782</v>
       </c>
       <c r="Y5">
-        <v>5.941789471744924</v>
+        <v>8.54608302430848</v>
       </c>
       <c r="Z5">
-        <v>8.5696238944214009</v>
+        <v>9.8501058054343993</v>
       </c>
       <c r="AA5">
-        <v>13.253827106482502</v>
+        <v>16.802297456993301</v>
       </c>
       <c r="AB5">
-        <v>12.251988831668575</v>
+        <v>16.965698014201699</v>
       </c>
       <c r="AC5">
-        <v>12.384277185104203</v>
+        <v>15.811528247077099</v>
       </c>
       <c r="AD5">
-        <v>5.2165990542253136</v>
+        <v>8.7803188716182596</v>
       </c>
       <c r="AE5">
-        <v>7.4000295744600368</v>
+        <v>11.7503512930334</v>
       </c>
       <c r="AF5">
-        <v>9.6945351137118454</v>
+        <v>12.1359105502045</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -9544,91 +9557,91 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>14.863283003959191</v>
+        <v>18.341969021953201</v>
       </c>
       <c r="C6">
-        <v>12.516932042005452</v>
+        <v>16.516921419579099</v>
       </c>
       <c r="D6">
-        <v>15.334462704555332</v>
+        <v>16.303419634277901</v>
       </c>
       <c r="E6">
-        <v>29.184644064263736</v>
+        <v>36.175074161175097</v>
       </c>
       <c r="F6">
-        <v>24.666081328747183</v>
+        <v>29.4917023928483</v>
       </c>
       <c r="G6">
-        <v>21.442701890345862</v>
+        <v>25.540778989238799</v>
       </c>
       <c r="H6">
-        <v>22.684728114482215</v>
+        <v>28.679293047172699</v>
       </c>
       <c r="I6">
-        <v>17.031227959518453</v>
+        <v>25.700096922078199</v>
       </c>
       <c r="J6">
-        <v>18.948707492110653</v>
+        <v>21.595314394575301</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
       </c>
       <c r="M6">
-        <v>24.222746539569776</v>
+        <v>28.509458647210302</v>
       </c>
       <c r="N6">
-        <v>18.628230192255447</v>
+        <v>24.055470345662901</v>
       </c>
       <c r="O6">
-        <v>21.492878401060128</v>
+        <v>22.693904065548399</v>
       </c>
       <c r="P6">
-        <v>41.23499893124594</v>
+        <v>49.863491087408399</v>
       </c>
       <c r="Q6">
-        <v>36.152714589720482</v>
+        <v>40.308585584768203</v>
       </c>
       <c r="R6">
-        <v>29.174047592690709</v>
+        <v>34.738347159198</v>
       </c>
       <c r="S6">
-        <v>34.804678537245657</v>
+        <v>42.316034011410999</v>
       </c>
       <c r="T6">
-        <v>25.154702985902865</v>
+        <v>36.870497936106801</v>
       </c>
       <c r="U6">
-        <v>26.241094008865197</v>
+        <v>30.382899741386598</v>
       </c>
       <c r="W6" t="s">
         <v>3</v>
       </c>
       <c r="X6">
-        <v>1.8804287468836631</v>
+        <v>3.4610261162820302</v>
       </c>
       <c r="Y6">
-        <v>3.5052282326255422</v>
+        <v>4.9637584987908001</v>
       </c>
       <c r="Z6">
-        <v>5.5584018201299958</v>
+        <v>6.0459943183765601</v>
       </c>
       <c r="AA6">
-        <v>9.7049736436420666</v>
+        <v>13.4200673651</v>
       </c>
       <c r="AB6">
-        <v>8.2275374013000189</v>
+        <v>11.087417593540501</v>
       </c>
       <c r="AC6">
-        <v>8.3627076324950682</v>
+        <v>9.9953384999972492</v>
       </c>
       <c r="AD6">
-        <v>4.9212591497607772</v>
+        <v>7.7104582582508199</v>
       </c>
       <c r="AE6">
-        <v>4.8911877503444172</v>
+        <v>8.0280564615351508</v>
       </c>
       <c r="AF6">
-        <v>6.62022427899739</v>
+        <v>7.61444541333384</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -9636,91 +9649,91 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.647480320661298</v>
+        <v>19.086042833257999</v>
       </c>
       <c r="C7">
-        <v>19.887375246613072</v>
+        <v>24.803351806886901</v>
       </c>
       <c r="D7">
-        <v>21.436658058643989</v>
+        <v>24.700415938655102</v>
       </c>
       <c r="E7">
-        <v>30.709295602740212</v>
+        <v>42.530253464767803</v>
       </c>
       <c r="F7">
-        <v>34.630458666678862</v>
+        <v>41.1406269722061</v>
       </c>
       <c r="G7">
-        <v>29.778224810975772</v>
+        <v>37.018956680354201</v>
       </c>
       <c r="H7">
-        <v>23.3422222955367</v>
+        <v>30.378285829203001</v>
       </c>
       <c r="I7">
-        <v>26.132835475873403</v>
+        <v>34.421776971673403</v>
       </c>
       <c r="J7">
-        <v>26.412501399491152</v>
+        <v>31.0369879605934</v>
       </c>
       <c r="L7" t="s">
         <v>5</v>
       </c>
       <c r="M7">
-        <v>21.898265339818185</v>
+        <v>30.620226843906501</v>
       </c>
       <c r="N7">
-        <v>30.095127697575172</v>
+        <v>36.426862826310398</v>
       </c>
       <c r="O7">
-        <v>30.490455154447211</v>
+        <v>34.895140141101002</v>
       </c>
       <c r="P7">
-        <v>44.594606026600665</v>
+        <v>59.621841831387698</v>
       </c>
       <c r="Q7">
-        <v>48.480573970543986</v>
+        <v>56.7471477889857</v>
       </c>
       <c r="R7">
-        <v>41.223737620699204</v>
+        <v>50.914373835471402</v>
       </c>
       <c r="S7">
-        <v>36.77195997541741</v>
+        <v>45.999992406164601</v>
       </c>
       <c r="T7">
-        <v>39.026828607410657</v>
+        <v>49.877164109644099</v>
       </c>
       <c r="U7">
-        <v>37.622091351009374</v>
+        <v>44.0168029817386</v>
       </c>
       <c r="W7" t="s">
         <v>5</v>
       </c>
       <c r="X7">
-        <v>0.56022827545801701</v>
+        <v>2.9720227285751801</v>
       </c>
       <c r="Y7">
-        <v>5.2920366216069965</v>
+        <v>7.1992043241988002</v>
       </c>
       <c r="Z7">
-        <v>7.330680622823996</v>
+        <v>8.6533537576116597</v>
       </c>
       <c r="AA7">
-        <v>9.3132716213501308</v>
+        <v>15.110432724264699</v>
       </c>
       <c r="AB7">
-        <v>11.322430441962402</v>
+        <v>15.0273094616959</v>
       </c>
       <c r="AC7">
-        <v>10.923187339188061</v>
+        <v>13.8932915526894</v>
       </c>
       <c r="AD7">
-        <v>4.5246554303974227</v>
+        <v>7.4578774003006103</v>
       </c>
       <c r="AE7">
-        <v>7.0981924113621133</v>
+        <v>10.4314777207536</v>
       </c>
       <c r="AF7">
-        <v>8.727499911912199</v>
+        <v>10.5938927382511</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -9728,91 +9741,91 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>37.445947992418873</v>
+        <v>44.736774113230403</v>
       </c>
       <c r="C8">
-        <v>55.070766745015582</v>
+        <v>67.729608820744801</v>
       </c>
       <c r="D8">
-        <v>53.568322440310588</v>
+        <v>65.215907915517406</v>
       </c>
       <c r="E8">
-        <v>73.532349770207887</v>
+        <v>92.322621401152901</v>
       </c>
       <c r="F8">
-        <v>86.176393861946025</v>
+        <v>107.97564952080199</v>
       </c>
       <c r="G8">
-        <v>70.487367149683806</v>
+        <v>98.555613528093104</v>
       </c>
       <c r="H8">
-        <v>52.627414604551753</v>
+        <v>66.866236469509005</v>
       </c>
       <c r="I8">
-        <v>65.840694013826536</v>
+        <v>89.8966022232174</v>
       </c>
       <c r="J8">
-        <v>65.173349993583614</v>
+        <v>84.130945315549198</v>
       </c>
       <c r="L8" t="s">
         <v>7</v>
       </c>
       <c r="M8">
-        <v>61.371911284365972</v>
+        <v>70.694351762846097</v>
       </c>
       <c r="N8">
-        <v>85.937640897478033</v>
+        <v>102.54794062702901</v>
       </c>
       <c r="O8">
-        <v>80.911994498402592</v>
+        <v>98.061536855948404</v>
       </c>
       <c r="P8">
-        <v>107.85899404869046</v>
+        <v>131.95936577302399</v>
       </c>
       <c r="Q8">
-        <v>129.80736018549035</v>
+        <v>153.88998163990601</v>
       </c>
       <c r="R8">
-        <v>102.357813722201</v>
+        <v>142.318383736236</v>
       </c>
       <c r="S8">
-        <v>83.964092893388084</v>
+        <v>102.528031711106</v>
       </c>
       <c r="T8">
-        <v>103.00583794686349</v>
+        <v>134.92102498075801</v>
       </c>
       <c r="U8">
-        <v>98.861263111797925</v>
+        <v>126.66531876590599</v>
       </c>
       <c r="W8" t="s">
         <v>7</v>
       </c>
       <c r="X8">
-        <v>6.0724945858005199</v>
+        <v>8.8616334028251398</v>
       </c>
       <c r="Y8">
-        <v>12.91198226185943</v>
+        <v>17.553320492165</v>
       </c>
       <c r="Z8">
-        <v>14.893062597547212</v>
+        <v>18.498181803900899</v>
       </c>
       <c r="AA8">
-        <v>22.053934439816498</v>
+        <v>30.5590163462319</v>
       </c>
       <c r="AB8">
-        <v>23.645618590819218</v>
+        <v>34.623728943740502</v>
       </c>
       <c r="AC8">
-        <v>21.923760939378937</v>
+        <v>31.183006385973702</v>
       </c>
       <c r="AD8">
-        <v>10.519181924857419</v>
+        <v>16.081120750644502</v>
       </c>
       <c r="AE8">
-        <v>15.216754410256399</v>
+        <v>24.0761526027222</v>
       </c>
       <c r="AF8">
-        <v>17.460901156086262</v>
+        <v>23.401281396791301</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -9868,129 +9881,129 @@
       </c>
       <c r="B12" s="2">
         <f>(B4+C4+D4)/3</f>
-        <v>24.275521615606802</v>
+        <v>27.742898387061363</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(E4:G4)</f>
-        <v>41.220368234461056</v>
+        <v>49.593835773641068</v>
       </c>
       <c r="D12" s="2">
         <f>AVERAGE(H4:J4)</f>
-        <v>29.850723190627594</v>
+        <v>38.152056490908869</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12:G16" si="0">AVERAGE(B4,E4,H4)</f>
-        <v>23.799025628724095</v>
+        <v>29.213402359330232</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>34.835354223136882</v>
+        <v>43.789139790954927</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>36.712233188834482</v>
+        <v>42.486248501326138</v>
       </c>
       <c r="H12">
         <f>_xlfn.VAR.P(B12:D12)</f>
-        <v>49.71994755126434</v>
+        <v>79.636483361986393</v>
       </c>
       <c r="I12">
         <f>_xlfn.VAR.P(E12:G12)</f>
-        <v>32.452683665136043</v>
+        <v>43.368676899705356</v>
       </c>
       <c r="J12" s="1">
         <f>H12/(H12+I12)</f>
-        <v>0.60506700120539658</v>
+        <v>0.64742392264325255</v>
       </c>
       <c r="K12" s="1">
         <f>1-J12</f>
-        <v>0.39493299879460342</v>
+        <v>0.35257607735674745</v>
       </c>
       <c r="L12" t="s">
         <v>0</v>
       </c>
       <c r="M12" s="2">
         <f>(M4+N4+O4)/3</f>
-        <v>37.439928176663045</v>
+        <v>41.966063412622134</v>
       </c>
       <c r="N12" s="2">
         <f>AVERAGE(P4:R4)</f>
-        <v>59.368335993463866</v>
+        <v>70.137393650740265</v>
       </c>
       <c r="O12" s="2">
         <f>AVERAGE(S4:U4)</f>
-        <v>45.486239985874022</v>
+        <v>56.655868541407898</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ref="P12:R16" si="1">AVERAGE(M4,P4,S4)</f>
-        <v>37.265576289266669</v>
+        <v>44.038385374370932</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="1"/>
-        <v>52.046508550951067</v>
+        <v>63.994936007500677</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="1"/>
-        <v>52.982419315783197</v>
+        <v>60.726004222898702</v>
       </c>
       <c r="S12">
         <f>_xlfn.VAR.P(M12:O12)</f>
-        <v>82.034532519435743</v>
+        <v>132.35174904226247</v>
       </c>
       <c r="T12">
         <f>_xlfn.VAR.P(P12:R12)</f>
-        <v>51.81900468937723</v>
+        <v>76.380716779865509</v>
       </c>
       <c r="U12" s="1">
         <f>S12/(S12+T12)</f>
-        <v>0.61286787207917393</v>
+        <v>0.63407361437988485</v>
       </c>
       <c r="V12" s="1">
         <f>1-U12</f>
-        <v>0.38713212792082607</v>
+        <v>0.36592638562011515</v>
       </c>
       <c r="W12" t="s">
         <v>0</v>
       </c>
       <c r="X12" s="2">
         <f>(X4+Y4+Z4)/3</f>
-        <v>5.8306471292967617</v>
+        <v>7.1724510610262833</v>
       </c>
       <c r="Y12" s="2">
         <f>AVERAGE(AA4:AC4)</f>
-        <v>12.89438836910012</v>
+        <v>16.9861056823068</v>
       </c>
       <c r="Z12" s="2">
         <f>AVERAGE(AD4:AF4)</f>
-        <v>7.4284336067637966</v>
+        <v>10.68866263357183</v>
       </c>
       <c r="AA12" s="2">
         <f t="shared" ref="AA12:AC16" si="2">AVERAGE(X4,AA4,AD4)</f>
-        <v>4.890854601536609</v>
+        <v>7.3840892397307165</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="2"/>
-        <v>9.5182621466576762</v>
+        <v>13.228659352953663</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="2"/>
-        <v>11.744352356966393</v>
+        <v>14.234470784220532</v>
       </c>
       <c r="AD12">
         <f>_xlfn.VAR.P(X12:Z12)</f>
-        <v>9.1473359327091472</v>
+        <v>16.481038866749309</v>
       </c>
       <c r="AE12">
         <f>_xlfn.VAR.P(AA12:AC12)</f>
-        <v>8.148756632972967</v>
+        <v>9.1220426387480487</v>
       </c>
       <c r="AF12" s="1">
         <f>AD12/(AD12+AE12)</f>
-        <v>0.5288671934410637</v>
+        <v>0.6437130961447195</v>
       </c>
       <c r="AG12" s="1">
         <f>1-AF12</f>
-        <v>0.4711328065589363</v>
+        <v>0.3562869038552805</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -9999,129 +10012,129 @@
       </c>
       <c r="B13" s="2">
         <f>(B5+C5+D5)/3</f>
-        <v>25.639599917002428</v>
+        <v>31.241367433637766</v>
       </c>
       <c r="C13" s="2">
         <f>AVERAGE(E5:G5)</f>
-        <v>41.774936398092677</v>
+        <v>51.127784113660766</v>
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(H5:J5)</f>
-        <v>31.638173936539449</v>
+        <v>41.99813094432313</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>32.751858052289556</v>
+        <f>AVERAGE(B5,E5,H5)</f>
+        <v>40.076323589403238</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>32.996159696512301</v>
+        <f>AVERAGE(C5,F5,I5)</f>
+        <v>43.564927856900368</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>33.304692502832701</v>
+        <v>40.726031045318059</v>
       </c>
       <c r="H13">
         <f>_xlfn.VAR.P(B13:D13)</f>
-        <v>44.34288075864707</v>
+        <v>66.058677398745004</v>
       </c>
       <c r="I13">
         <f>_xlfn.VAR.P(E13:G13)</f>
-        <v>5.1166857294802102E-2</v>
+        <v>2.2946460689203003</v>
       </c>
       <c r="J13" s="1">
         <f>H13/(H13+I13)</f>
-        <v>0.99884743878869864</v>
+        <v>0.9664296342517158</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ref="K13:K16" si="3">1-J13</f>
-        <v>1.1525612113013617E-3</v>
+        <v>3.3570365748284203E-2</v>
       </c>
       <c r="L13" t="s">
         <v>1</v>
       </c>
       <c r="M13" s="2">
         <f>(M5+N5+O5)/3</f>
-        <v>40.593107358062575</v>
+        <v>48.25137573836227</v>
       </c>
       <c r="N13" s="2">
         <f>AVERAGE(P5:R5)</f>
-        <v>61.302412618630086</v>
+        <v>73.620635915433027</v>
       </c>
       <c r="O13" s="2">
         <f>AVERAGE(S5:U5)</f>
-        <v>49.196883503094426</v>
+        <v>63.908166332056027</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="1"/>
-        <v>51.590418523955123</v>
+        <v>61.203228861160831</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="1"/>
-        <v>50.569395909361212</v>
+        <v>64.72523854338003</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="1"/>
-        <v>48.932589046470753</v>
+        <v>59.851710581310471</v>
       </c>
       <c r="S13">
         <f t="shared" ref="S13:S16" si="4">_xlfn.VAR.P(M13:O13)</f>
-        <v>72.160458166252482</v>
+        <v>109.22961322607928</v>
       </c>
       <c r="T13">
         <f>_xlfn.VAR.P(P13:R13)</f>
-        <v>1.1984090463669255</v>
+        <v>4.2202698510543701</v>
       </c>
       <c r="U13" s="1">
         <f>S13/(S13+T13)</f>
-        <v>0.98366374656667588</v>
+        <v>0.96280057998662683</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" ref="V13:V16" si="5">1-U13</f>
-        <v>1.6336253433324122E-2</v>
+        <v>3.7199420013373174E-2</v>
       </c>
       <c r="W13" t="s">
         <v>1</v>
       </c>
       <c r="X13" s="2">
         <f>(X5+Y5+Z5)/3</f>
-        <v>5.7104696937203734</v>
+        <v>7.5865209009869004</v>
       </c>
       <c r="Y13" s="2">
         <f>AVERAGE(AA5:AC5)</f>
-        <v>12.630031041085095</v>
+        <v>16.5265079060907</v>
       </c>
       <c r="Z13" s="2">
         <f>AVERAGE(AD5:AF5)</f>
-        <v>7.4370545807990664</v>
+        <v>10.888860238285387</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="2"/>
-        <v>7.0301406252342034</v>
+        <v>9.9819967339431273</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="2"/>
-        <v>8.5312692926245131</v>
+        <v>12.420710777181194</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="2"/>
-        <v>10.216145397745818</v>
+        <v>12.599181534238667</v>
       </c>
       <c r="AD13">
         <f t="shared" ref="AD13:AD16" si="6">_xlfn.VAR.P(X13:Z13)</f>
-        <v>8.6476032365908146</v>
+        <v>13.623542664044964</v>
       </c>
       <c r="AE13">
         <f>_xlfn.VAR.P(AA13:AC13)</f>
-        <v>1.6936467973485176</v>
+        <v>1.4254260305232644</v>
       </c>
       <c r="AF13" s="1">
         <f>AD13/(AD13+AE13)</f>
-        <v>0.83622417098609214</v>
+        <v>0.90528081628359314</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" ref="AG13:AG16" si="7">1-AF13</f>
-        <v>0.16377582901390786</v>
+        <v>9.4719183716406863E-2</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -10130,129 +10143,129 @@
       </c>
       <c r="B14" s="2">
         <f>(B6+C6+D6)/3</f>
-        <v>14.238225916839992</v>
+        <v>17.054103358603399</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(E6:G6)</f>
-        <v>25.097809094452259</v>
+        <v>30.402518514420734</v>
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(H6:J6)</f>
-        <v>19.554887855370442</v>
+        <v>25.324901454608732</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>22.244218394235048</v>
+        <v>27.732112076766999</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>18.07141377675703</v>
+        <v>23.902906911501869</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>18.575290695670617</v>
+        <v>21.146504339364</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:H16" si="8">_xlfn.VAR.P(B14:D14)</f>
-        <v>19.657935202529188</v>
+        <v>30.263164813670201</v>
       </c>
       <c r="I14">
         <f>_xlfn.VAR.P(E14:G14)</f>
-        <v>3.4585800869281123</v>
+        <v>7.2923107342581313</v>
       </c>
       <c r="J14" s="1">
         <f>H14/(H14+I14)</f>
-        <v>0.85038488528132705</v>
+        <v>0.80582563187219725</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>0.14961511471867295</v>
+        <v>0.19417436812780275</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="2">
         <f>(M6+N6+O6)/3</f>
-        <v>21.447951710961785</v>
+        <v>25.086277686140534</v>
       </c>
       <c r="N14" s="2">
         <f>AVERAGE(P6:R6)</f>
-        <v>35.520587037885711</v>
+        <v>41.636807943791531</v>
       </c>
       <c r="O14" s="2">
         <f>AVERAGE(S6:U6)</f>
-        <v>28.733491844004572</v>
+        <v>36.52314389630147</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="1"/>
-        <v>33.420808002687124</v>
+        <v>40.229661248676564</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="1"/>
-        <v>26.645215922626267</v>
+        <v>33.744851288845972</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="1"/>
-        <v>25.63600666753868</v>
+        <v>29.271716988710995</v>
       </c>
       <c r="S14">
         <f t="shared" si="4"/>
-        <v>33.020313471729828</v>
+        <v>47.874613389904169</v>
       </c>
       <c r="T14">
         <f>_xlfn.VAR.P(P14:R14)</f>
-        <v>11.947809242629774</v>
+        <v>20.237581454074945</v>
       </c>
       <c r="U14" s="1">
         <f>S14/(S14+T14)</f>
-        <v>0.73430491376028695</v>
+        <v>0.70287873558571901</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="5"/>
-        <v>0.26569508623971305</v>
+        <v>0.29712126441428099</v>
       </c>
       <c r="W14" t="s">
         <v>3</v>
       </c>
       <c r="X14" s="2">
         <f>(X6+Y6+Z6)/3</f>
-        <v>3.6480195998797336</v>
+        <v>4.8235929778164639</v>
       </c>
       <c r="Y14" s="2">
         <f>AVERAGE(AA6:AC6)</f>
-        <v>8.7650728924790524</v>
+        <v>11.50094115287925</v>
       </c>
       <c r="Z14" s="2">
         <f>AVERAGE(AD6:AF6)</f>
-        <v>5.4775570597008612</v>
+        <v>7.7843200443732705</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="2"/>
-        <v>5.5022205134288358</v>
+        <v>8.1971839132109512</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="2"/>
-        <v>5.541317794756659</v>
+        <v>8.0264108512888175</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="2"/>
-        <v>6.8471112438741519</v>
+        <v>7.8852594105692164</v>
       </c>
       <c r="AD14">
         <f t="shared" si="6"/>
-        <v>4.4821335629952852</v>
+        <v>7.4629062086498328</v>
       </c>
       <c r="AE14">
         <f>_xlfn.VAR.P(AA14:AC14)</f>
-        <v>0.39059513400035129</v>
+        <v>1.6264895915974839E-2</v>
       </c>
       <c r="AF14" s="1">
         <f>AD14/(AD14+AE14)</f>
-        <v>0.91984057428824639</v>
+        <v>0.99782530768602884</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="7"/>
-        <v>8.0159425711753607E-2</v>
+        <v>2.1746923139711605E-3</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -10261,129 +10274,129 @@
       </c>
       <c r="B15" s="2">
         <f>(B7+C7+D7)/3</f>
-        <v>17.990504541972786</v>
+        <v>22.863270192933332</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(E7:G7)</f>
-        <v>31.705993026798282</v>
+        <v>40.229945705776032</v>
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(H7:J7)</f>
-        <v>25.295853056967086</v>
+        <v>31.945683587156605</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>22.232999406312739</v>
+        <v>30.664860709076265</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>26.883556463055115</v>
+        <v>33.45525191692213</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>25.875794756370301</v>
+        <v>30.918786859867566</v>
       </c>
       <c r="H15">
         <f t="shared" si="8"/>
-        <v>31.396959526193012</v>
+        <v>50.302294475769791</v>
       </c>
       <c r="I15">
         <f>_xlfn.VAR.P(E15:G15)</f>
-        <v>3.9903580619863983</v>
+        <v>1.5871573965042221</v>
       </c>
       <c r="J15" s="1">
         <f>H15/(H15+I15)</f>
-        <v>0.88723762257359362</v>
+        <v>0.96941271608705726</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>0.11276237742640638</v>
+        <v>3.0587283912942742E-2</v>
       </c>
       <c r="L15" t="s">
         <v>5</v>
       </c>
       <c r="M15" s="2">
         <f>(M7+N7+O7)/3</f>
-        <v>27.494616063946854</v>
+        <v>33.980743270439298</v>
       </c>
       <c r="N15" s="2">
         <f>AVERAGE(P7:R7)</f>
-        <v>44.766305872614623</v>
+        <v>55.761121151948267</v>
       </c>
       <c r="O15" s="2">
         <f>AVERAGE(S7:U7)</f>
-        <v>37.806959977945816</v>
+        <v>46.631319832515771</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="1"/>
-        <v>34.421610447278759</v>
+        <v>45.414020360486269</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="1"/>
-        <v>39.200843425176608</v>
+        <v>47.683724908313401</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="1"/>
-        <v>36.44542804205193</v>
+        <v>43.275438986103666</v>
       </c>
       <c r="S15">
         <f t="shared" si="4"/>
-        <v>50.343133458785616</v>
+        <v>79.752802238511421</v>
       </c>
       <c r="T15">
         <f>_xlfn.VAR.P(P15:R15)</f>
-        <v>3.8365799386111008</v>
+        <v>3.239785977915099</v>
       </c>
       <c r="U15" s="1">
         <f>S15/(S15+T15)</f>
-        <v>0.92918788790057638</v>
+        <v>0.96096294804704185</v>
       </c>
       <c r="V15" s="1">
         <f t="shared" si="5"/>
-        <v>7.0812112099423619E-2</v>
+        <v>3.9037051952958146E-2</v>
       </c>
       <c r="W15" t="s">
         <v>5</v>
       </c>
       <c r="X15" s="2">
         <f>(X7+Y7+Z7)/3</f>
-        <v>4.394315173296337</v>
+        <v>6.2748602701285465</v>
       </c>
       <c r="Y15" s="2">
         <f>AVERAGE(AA7:AC7)</f>
-        <v>10.519629800833531</v>
+        <v>14.677011246216665</v>
       </c>
       <c r="Z15" s="2">
         <f>AVERAGE(AD7:AF7)</f>
-        <v>6.7834492512239111</v>
+        <v>9.49441595310177</v>
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="2"/>
-        <v>4.799385109068524</v>
+        <v>8.5134442843801637</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="2"/>
-        <v>7.9042198249771713</v>
+        <v>10.885997168882767</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="2"/>
-        <v>8.9937892913080848</v>
+        <v>11.046846016184054</v>
       </c>
       <c r="AD15">
         <f t="shared" si="6"/>
-        <v>6.3540540031019077</v>
+        <v>11.980108199217815</v>
       </c>
       <c r="AE15">
         <f>_xlfn.VAR.P(AA15:AC15)</f>
-        <v>3.1577985198956386</v>
+        <v>1.3414448751273842</v>
       </c>
       <c r="AF15" s="1">
         <f>AD15/(AD15+AE15)</f>
-        <v>0.66801435238185369</v>
+        <v>0.89930266631517952</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="7"/>
-        <v>0.33198564761814631</v>
+        <v>0.10069733368482048</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -10392,129 +10405,2012 @@
       </c>
       <c r="B16" s="2">
         <f>(B8+C8+D8)/3</f>
-        <v>48.695012392581681</v>
+        <v>59.22743028316421</v>
       </c>
       <c r="C16" s="2">
         <f>AVERAGE(E8:G8)</f>
-        <v>76.732036927279239</v>
+        <v>99.617961483349333</v>
       </c>
       <c r="D16" s="2">
         <f>AVERAGE(H8:J8)</f>
-        <v>61.213819537320639</v>
+        <v>80.297928002758525</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>54.535237455726168</v>
+        <v>67.975210661297439</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>69.029284873596055</v>
+        <v>88.53395352158806</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>63.076346527859336</v>
+        <v>82.634155586386569</v>
       </c>
       <c r="H16">
         <f t="shared" si="8"/>
-        <v>131.51226089426928</v>
+        <v>272.06939760841163</v>
       </c>
       <c r="I16">
         <f>_xlfn.VAR.P(E16:G16)</f>
-        <v>35.385047742408759</v>
+        <v>74.706021109839241</v>
       </c>
       <c r="J16" s="1">
         <f>H16/(H16+I16)</f>
-        <v>0.78798311349981598</v>
+        <v>0.78456944443765031</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>0.21201688650018402</v>
+        <v>0.21543055556234969</v>
       </c>
       <c r="L16" t="s">
         <v>7</v>
       </c>
       <c r="M16" s="2">
         <f>(M8+N8+O8)/3</f>
-        <v>76.07384889341553</v>
+        <v>90.434609748607841</v>
       </c>
       <c r="N16" s="2">
         <f>AVERAGE(P8:R8)</f>
-        <v>113.34138931879393</v>
+        <v>142.72257704972199</v>
       </c>
       <c r="O16" s="2">
         <f>AVERAGE(S8:U8)</f>
-        <v>95.277064650683158</v>
+        <v>121.37145848592333</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="1"/>
-        <v>84.39833274214817</v>
+        <v>101.72724974899204</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="1"/>
-        <v>106.25027967661062</v>
+        <v>130.45298241589765</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="1"/>
-        <v>94.043690444133844</v>
+        <v>122.34841311936346</v>
       </c>
       <c r="S16">
         <f t="shared" si="4"/>
-        <v>231.5503211658102</v>
+        <v>460.77671091147772</v>
       </c>
       <c r="T16">
         <f>_xlfn.VAR.P(P16:R16)</f>
-        <v>79.949036746248325</v>
+        <v>146.23157105337953</v>
       </c>
       <c r="U16" s="1">
         <f>S16/(S16+T16)</f>
-        <v>0.74334124705059812</v>
+        <v>0.75909460315757993</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="5"/>
-        <v>0.25665875294940188</v>
+        <v>0.24090539684242007</v>
       </c>
       <c r="W16" t="s">
         <v>7</v>
       </c>
       <c r="X16" s="2">
         <f>(X8+Y8+Z8)/3</f>
-        <v>11.292513148402387</v>
+        <v>14.971045232963681</v>
       </c>
       <c r="Y16" s="2">
         <f>AVERAGE(AA8:AC8)</f>
-        <v>22.54110465667155</v>
+        <v>32.121917225315364</v>
       </c>
       <c r="Z16" s="2">
         <f>AVERAGE(AD8:AF8)</f>
-        <v>14.398945830400029</v>
+        <v>21.186184916719338</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="2"/>
-        <v>12.881870316824811</v>
+        <v>18.500590166567182</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="2"/>
-        <v>17.258118420978349</v>
+        <v>25.417734012875901</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="2"/>
-        <v>18.092574897670804</v>
+        <v>24.360823195555302</v>
       </c>
       <c r="AD16">
         <f t="shared" si="6"/>
-        <v>22.497276142213245</v>
+        <v>50.26340139021098</v>
       </c>
       <c r="AE16">
         <f>_xlfn.VAR.P(AA16:AC16)</f>
-        <v>5.2221452566056241</v>
+        <v>9.2562522911486873</v>
       </c>
       <c r="AF16" s="1">
         <f>AD16/(AD16+AE16)</f>
-        <v>0.81160698914054019</v>
+        <v>0.84448410367603399</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="7"/>
-        <v>0.18839301085945981</v>
+        <v>0.15551589632396601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>17</v>
+      </c>
+      <c r="W19" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
+        <f>MAX(B12:D12)-MIN(B12:D12)</f>
+        <v>21.850937386579705</v>
+      </c>
+      <c r="D20" s="4">
+        <f>MAX(E12:G12)-MIN(E12:G12)</f>
+        <v>14.575737431624695</v>
+      </c>
+      <c r="E20" s="1">
+        <f>C20/(C20+D20)</f>
+        <v>0.59986088479477673</v>
+      </c>
+      <c r="F20" s="1">
+        <f>1-E20</f>
+        <v>0.40013911520522327</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="3">
+        <f>MAX(M12:O12)-MIN(M12:O12)</f>
+        <v>28.171330238118131</v>
+      </c>
+      <c r="O20" s="4">
+        <f>MAX(P12:R12)-MIN(P12:R12)</f>
+        <v>19.956550633129744</v>
+      </c>
+      <c r="P20" s="1">
+        <f>N20/(N20+O20)</f>
+        <v>0.58534325069251059</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>1-P20</f>
+        <v>0.41465674930748941</v>
+      </c>
+      <c r="W20" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="3">
+        <f>MAX(X12:Z12)-MIN(X12:Z12)</f>
+        <v>9.8136546212805165</v>
+      </c>
+      <c r="Z20" s="4">
+        <f>MAX(AA12:AC12)-MIN(AA12:AC12)</f>
+        <v>6.8503815444898155</v>
+      </c>
+      <c r="AA20" s="1">
+        <f>Y20/(Y20+Z20)</f>
+        <v>0.58891222532502574</v>
+      </c>
+      <c r="AB20" s="1">
+        <f>1-AA20</f>
+        <v>0.41108777467497426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
+        <f>MAX(B13:D13)-MIN(B13:D13)</f>
+        <v>19.886416680023</v>
+      </c>
+      <c r="D21" s="4">
+        <f>MAX(E13:G13)-MIN(E13:G13)</f>
+        <v>3.4886042674971307</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ref="E21:E24" si="9">C21/(C21+D21)</f>
+        <v>0.85075503139314879</v>
+      </c>
+      <c r="F21" s="1">
+        <f>1-E21</f>
+        <v>0.14924496860685121</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="3">
+        <f>MAX(M13:O13)-MIN(M13:O13)</f>
+        <v>25.369260177070757</v>
+      </c>
+      <c r="O21" s="4">
+        <f>MAX(P13:R13)-MIN(P13:R13)</f>
+        <v>4.8735279620695593</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" ref="P21:P24" si="10">N21/(N21+O21)</f>
+        <v>0.83885321883526265</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" ref="Q21:Q24" si="11">1-P21</f>
+        <v>0.16114678116473735</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="3">
+        <f>MAX(X13:Z13)-MIN(X13:Z13)</f>
+        <v>8.9399870051037986</v>
+      </c>
+      <c r="Z21" s="4">
+        <f>MAX(AA13:AC13)-MIN(AA13:AC13)</f>
+        <v>2.61718480029554</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" ref="AA21:AA24" si="12">Y21/(Y21+Z21)</f>
+        <v>0.77354452764362036</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" ref="AB21:AB24" si="13">1-AA21</f>
+        <v>0.22645547235637964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3">
+        <f>MAX(B14:D14)-MIN(B14:D14)</f>
+        <v>13.348415155817335</v>
+      </c>
+      <c r="D22" s="4">
+        <f>MAX(E14:G14)-MIN(E14:G14)</f>
+        <v>6.5856077374029987</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="9"/>
+        <v>0.66962976953122699</v>
+      </c>
+      <c r="F22" s="1">
+        <f>1-E22</f>
+        <v>0.33037023046877301</v>
+      </c>
+      <c r="L22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="3">
+        <f>MAX(M14:O14)-MIN(M14:O14)</f>
+        <v>16.550530257650998</v>
+      </c>
+      <c r="O22" s="4">
+        <f>MAX(P14:R14)-MIN(P14:R14)</f>
+        <v>10.957944259965569</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="10"/>
+        <v>0.60165205624368423</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="11"/>
+        <v>0.39834794375631577</v>
+      </c>
+      <c r="W22" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="3">
+        <f>MAX(X14:Z14)-MIN(X14:Z14)</f>
+        <v>6.6773481750627859</v>
+      </c>
+      <c r="Z22" s="4">
+        <f>MAX(AA14:AC14)-MIN(AA14:AC14)</f>
+        <v>0.31192450264173477</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" si="12"/>
+        <v>0.95537096390061294</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="13"/>
+        <v>4.4629036099387065E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3">
+        <f>MAX(B15:D15)-MIN(B15:D15)</f>
+        <v>17.366675512842701</v>
+      </c>
+      <c r="D23" s="4">
+        <f>MAX(E15:G15)-MIN(E15:G15)</f>
+        <v>2.7903912078458646</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="9"/>
+        <v>0.86156759579597475</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ref="F23:F24" si="14">1-E23</f>
+        <v>0.13843240420402525</v>
+      </c>
+      <c r="L23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="3">
+        <f>MAX(M15:O15)-MIN(M15:O15)</f>
+        <v>21.780377881508969</v>
+      </c>
+      <c r="O23" s="4">
+        <f>MAX(P15:R15)-MIN(P15:R15)</f>
+        <v>4.4082859222097355</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="10"/>
+        <v>0.83167198008843146</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="11"/>
+        <v>0.16832801991156854</v>
+      </c>
+      <c r="W23" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="3">
+        <f>MAX(X15:Z15)-MIN(X15:Z15)</f>
+        <v>8.4021509760881194</v>
+      </c>
+      <c r="Z23" s="4">
+        <f>MAX(AA15:AC15)-MIN(AA15:AC15)</f>
+        <v>2.5334017318038899</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" si="12"/>
+        <v>0.76833345332645364</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="13"/>
+        <v>0.23166654667354636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3">
+        <f>MAX(B16:D16)-MIN(B16:D16)</f>
+        <v>40.390531200185123</v>
+      </c>
+      <c r="D24" s="4">
+        <f>MAX(E16:G16)-MIN(E16:G16)</f>
+        <v>20.558742860290621</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="9"/>
+        <v>0.662690931480306</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="14"/>
+        <v>0.337309068519694</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="3">
+        <f>MAX(M16:O16)-MIN(M16:O16)</f>
+        <v>52.287967301114151</v>
+      </c>
+      <c r="O24" s="4">
+        <f>MAX(P16:R16)-MIN(P16:R16)</f>
+        <v>28.725732666905614</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="10"/>
+        <v>0.64542129691342176</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="11"/>
+        <v>0.35457870308657824</v>
+      </c>
+      <c r="W24" t="s">
+        <v>7</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="3">
+        <f>MAX(X16:Z16)-MIN(X16:Z16)</f>
+        <v>17.150871992351682</v>
+      </c>
+      <c r="Z24" s="4">
+        <f>MAX(AA16:AC16)-MIN(AA16:AC16)</f>
+        <v>6.9171438463087185</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" si="12"/>
+        <v>0.71260016227853207</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="13"/>
+        <v>0.28739983772146793</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DF7633-923E-1C41-BE84-A63CEA5F1132}">
+  <dimension ref="A1:AG24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>16.310906134223099</v>
+      </c>
+      <c r="C4">
+        <v>32.667065683349797</v>
+      </c>
+      <c r="D4">
+        <v>34.250723343611199</v>
+      </c>
+      <c r="E4">
+        <v>43.8238203652975</v>
+      </c>
+      <c r="F4">
+        <v>54.324663070243901</v>
+      </c>
+      <c r="G4">
+        <v>50.633023885381803</v>
+      </c>
+      <c r="H4">
+        <v>27.505480578470099</v>
+      </c>
+      <c r="I4">
+        <v>44.375690619271097</v>
+      </c>
+      <c r="J4">
+        <v>42.574998274985397</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>27.229592327467</v>
+      </c>
+      <c r="N4">
+        <v>49.163113337009001</v>
+      </c>
+      <c r="O4">
+        <v>49.505484573390397</v>
+      </c>
+      <c r="P4">
+        <v>62.202052573427501</v>
+      </c>
+      <c r="Q4">
+        <v>77.063516705814607</v>
+      </c>
+      <c r="R4">
+        <v>71.146611672978693</v>
+      </c>
+      <c r="S4">
+        <v>42.6835112222183</v>
+      </c>
+      <c r="T4">
+        <v>65.758177979678393</v>
+      </c>
+      <c r="U4">
+        <v>61.525916422327001</v>
+      </c>
+      <c r="W4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1.5028457797769601</v>
+      </c>
+      <c r="Y4">
+        <v>8.8333780375447901</v>
+      </c>
+      <c r="Z4">
+        <v>11.1811293657571</v>
+      </c>
+      <c r="AA4">
+        <v>14.8857667706349</v>
+      </c>
+      <c r="AB4">
+        <v>18.249856203763098</v>
+      </c>
+      <c r="AC4">
+        <v>17.822694072522399</v>
+      </c>
+      <c r="AD4">
+        <v>5.7636551687802902</v>
+      </c>
+      <c r="AE4">
+        <v>12.602743817553099</v>
+      </c>
+      <c r="AF4">
+        <v>13.699588914382099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>27.374191195122702</v>
+      </c>
+      <c r="C5">
+        <v>33.681011860840201</v>
+      </c>
+      <c r="D5">
+        <v>32.668899244950403</v>
+      </c>
+      <c r="E5">
+        <v>52.726818609777297</v>
+      </c>
+      <c r="F5">
+        <v>52.396269272093697</v>
+      </c>
+      <c r="G5">
+        <v>48.260264459111298</v>
+      </c>
+      <c r="H5">
+        <v>40.127960963309697</v>
+      </c>
+      <c r="I5">
+        <v>44.6175024377672</v>
+      </c>
+      <c r="J5">
+        <v>41.248929431892499</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>44.571016847934402</v>
+      </c>
+      <c r="N5">
+        <v>51.6047332899144</v>
+      </c>
+      <c r="O5">
+        <v>48.578377077238002</v>
+      </c>
+      <c r="P5">
+        <v>76.389668206843794</v>
+      </c>
+      <c r="Q5">
+        <v>74.970421137043999</v>
+      </c>
+      <c r="R5">
+        <v>69.501818402411303</v>
+      </c>
+      <c r="S5">
+        <v>62.649001528704297</v>
+      </c>
+      <c r="T5">
+        <v>67.600561203181698</v>
+      </c>
+      <c r="U5">
+        <v>61.4749362642821</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>4.36337387321782</v>
+      </c>
+      <c r="Y5">
+        <v>8.54608302430848</v>
+      </c>
+      <c r="Z5">
+        <v>9.8501058054343993</v>
+      </c>
+      <c r="AA5">
+        <v>16.802297456993301</v>
+      </c>
+      <c r="AB5">
+        <v>16.965698014201699</v>
+      </c>
+      <c r="AC5">
+        <v>15.811528247077099</v>
+      </c>
+      <c r="AD5">
+        <v>8.7803188716182596</v>
+      </c>
+      <c r="AE5">
+        <v>11.7503512930334</v>
+      </c>
+      <c r="AF5">
+        <v>12.1359105502045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>18.341969021953201</v>
+      </c>
+      <c r="C6">
+        <v>16.516921419579099</v>
+      </c>
+      <c r="D6">
+        <v>16.303419634277901</v>
+      </c>
+      <c r="E6">
+        <v>36.175074161175097</v>
+      </c>
+      <c r="F6">
+        <v>29.4917023928483</v>
+      </c>
+      <c r="G6">
+        <v>25.540778989238799</v>
+      </c>
+      <c r="H6">
+        <v>28.679293047172699</v>
+      </c>
+      <c r="I6">
+        <v>25.700096922078199</v>
+      </c>
+      <c r="J6">
+        <v>21.595314394575301</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>28.509458647210302</v>
+      </c>
+      <c r="N6">
+        <v>24.055470345662901</v>
+      </c>
+      <c r="O6">
+        <v>22.693904065548399</v>
+      </c>
+      <c r="P6">
+        <v>49.863491087408399</v>
+      </c>
+      <c r="Q6">
+        <v>40.308585584768203</v>
+      </c>
+      <c r="R6">
+        <v>34.738347159198</v>
+      </c>
+      <c r="S6">
+        <v>42.316034011410999</v>
+      </c>
+      <c r="T6">
+        <v>36.870497936106801</v>
+      </c>
+      <c r="U6">
+        <v>30.382899741386598</v>
+      </c>
+      <c r="W6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>3.4610261162820302</v>
+      </c>
+      <c r="Y6">
+        <v>4.9637584987908001</v>
+      </c>
+      <c r="Z6">
+        <v>6.0459943183765601</v>
+      </c>
+      <c r="AA6">
+        <v>13.4200673651</v>
+      </c>
+      <c r="AB6">
+        <v>11.087417593540501</v>
+      </c>
+      <c r="AC6">
+        <v>9.9953384999972492</v>
+      </c>
+      <c r="AD6">
+        <v>7.7104582582508199</v>
+      </c>
+      <c r="AE6">
+        <v>8.0280564615351508</v>
+      </c>
+      <c r="AF6">
+        <v>7.61444541333384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>19.086042833257999</v>
+      </c>
+      <c r="C7">
+        <v>24.803351806886901</v>
+      </c>
+      <c r="D7">
+        <v>24.700415938655102</v>
+      </c>
+      <c r="E7">
+        <v>42.530253464767803</v>
+      </c>
+      <c r="F7">
+        <v>41.1406269722061</v>
+      </c>
+      <c r="G7">
+        <v>37.018956680354201</v>
+      </c>
+      <c r="H7">
+        <v>30.378285829203001</v>
+      </c>
+      <c r="I7">
+        <v>34.421776971673403</v>
+      </c>
+      <c r="J7">
+        <v>31.0369879605934</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>30.620226843906501</v>
+      </c>
+      <c r="N7">
+        <v>36.426862826310398</v>
+      </c>
+      <c r="O7">
+        <v>34.895140141101002</v>
+      </c>
+      <c r="P7">
+        <v>59.621841831387698</v>
+      </c>
+      <c r="Q7">
+        <v>56.7471477889857</v>
+      </c>
+      <c r="R7">
+        <v>50.914373835471402</v>
+      </c>
+      <c r="S7">
+        <v>45.999992406164601</v>
+      </c>
+      <c r="T7">
+        <v>49.877164109644099</v>
+      </c>
+      <c r="U7">
+        <v>44.0168029817386</v>
+      </c>
+      <c r="W7" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>2.9720227285751801</v>
+      </c>
+      <c r="Y7">
+        <v>7.1992043241988002</v>
+      </c>
+      <c r="Z7">
+        <v>8.6533537576116597</v>
+      </c>
+      <c r="AA7">
+        <v>15.110432724264699</v>
+      </c>
+      <c r="AB7">
+        <v>15.0273094616959</v>
+      </c>
+      <c r="AC7">
+        <v>13.8932915526894</v>
+      </c>
+      <c r="AD7">
+        <v>7.4578774003006103</v>
+      </c>
+      <c r="AE7">
+        <v>10.4314777207536</v>
+      </c>
+      <c r="AF7">
+        <v>10.5938927382511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>44.736774113230403</v>
+      </c>
+      <c r="C8">
+        <v>67.729608820744801</v>
+      </c>
+      <c r="D8">
+        <v>65.215907915517406</v>
+      </c>
+      <c r="E8">
+        <v>92.322621401152901</v>
+      </c>
+      <c r="F8">
+        <v>107.97564952080199</v>
+      </c>
+      <c r="G8">
+        <v>98.555613528093104</v>
+      </c>
+      <c r="H8">
+        <v>66.866236469509005</v>
+      </c>
+      <c r="I8">
+        <v>89.8966022232174</v>
+      </c>
+      <c r="J8">
+        <v>84.130945315549198</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>70.694351762846097</v>
+      </c>
+      <c r="N8">
+        <v>102.54794062702901</v>
+      </c>
+      <c r="O8">
+        <v>98.061536855948404</v>
+      </c>
+      <c r="P8">
+        <v>131.95936577302399</v>
+      </c>
+      <c r="Q8">
+        <v>153.88998163990601</v>
+      </c>
+      <c r="R8">
+        <v>142.318383736236</v>
+      </c>
+      <c r="S8">
+        <v>102.528031711106</v>
+      </c>
+      <c r="T8">
+        <v>134.92102498075801</v>
+      </c>
+      <c r="U8">
+        <v>126.66531876590599</v>
+      </c>
+      <c r="W8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>8.8616334028251398</v>
+      </c>
+      <c r="Y8">
+        <v>17.553320492165</v>
+      </c>
+      <c r="Z8">
+        <v>18.498181803900899</v>
+      </c>
+      <c r="AA8">
+        <v>30.5590163462319</v>
+      </c>
+      <c r="AB8">
+        <v>34.623728943740502</v>
+      </c>
+      <c r="AC8">
+        <v>31.183006385973702</v>
+      </c>
+      <c r="AD8">
+        <v>16.081120750644502</v>
+      </c>
+      <c r="AE8">
+        <v>24.0761526027222</v>
+      </c>
+      <c r="AF8">
+        <v>23.401281396791301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>16</v>
+      </c>
+      <c r="W11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <f>_xlfn.VAR.P((B4:J4))</f>
+        <v>126.93525971739139</v>
+      </c>
+      <c r="C12">
+        <f>(_xlfn.VAR.P(B4:D4)+_xlfn.VAR.P(E4:G4)+_xlfn.VAR.P(H4:J4))/3</f>
+        <v>47.298776355404122</v>
+      </c>
+      <c r="D12" s="2">
+        <f>B12-C12</f>
+        <v>79.636483361987274</v>
+      </c>
+      <c r="E12" s="1">
+        <f>C12/B12</f>
+        <v>0.37262125953584607</v>
+      </c>
+      <c r="F12" s="1">
+        <f>1-E12</f>
+        <v>0.62737874046415398</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <f>_xlfn.VAR.P((M4:U4))</f>
+        <v>214.52502584542913</v>
+      </c>
+      <c r="N12">
+        <f>(_xlfn.VAR.P(M4:O4)+_xlfn.VAR.P(P4:R4)+_xlfn.VAR.P(S4:U4))/3</f>
+        <v>82.173276803164967</v>
+      </c>
+      <c r="O12" s="2">
+        <f>M12-N12</f>
+        <v>132.35174904226415</v>
+      </c>
+      <c r="P12" s="1">
+        <f>N12/M12</f>
+        <v>0.38304750916274427</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>1-P12</f>
+        <v>0.61695249083725567</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <f>_xlfn.VAR.P((X4:AF4))</f>
+        <v>26.999489494740654</v>
+      </c>
+      <c r="Y12">
+        <f>(_xlfn.VAR.P(X4:Z4)+_xlfn.VAR.P(AA4:AC4)+_xlfn.VAR.P(AD4:AF4))/3</f>
+        <v>10.518450627991312</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>X12-Y12</f>
+        <v>16.481038866749344</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>Y12/X12</f>
+        <v>0.38957961149747833</v>
+      </c>
+      <c r="AB12" s="1">
+        <f>1-AA12</f>
+        <v>0.61042038850252167</v>
+      </c>
+      <c r="AC12" s="2"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ref="B13:B16" si="0">_xlfn.VAR.P((B5:J5))</f>
+        <v>71.197937913652567</v>
+      </c>
+      <c r="C13">
+        <f>(_xlfn.VAR.P(B5:D5)+_xlfn.VAR.P(E5:G5)+_xlfn.VAR.P(H5:J5))/3</f>
+        <v>5.139260514907475</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:D16" si="1">B13-C13</f>
+        <v>66.05867739874509</v>
+      </c>
+      <c r="E13" s="1">
+        <f>C13/B13</f>
+        <v>7.2182715757024701E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13:F16" si="2">1-E13</f>
+        <v>0.92781728424297527</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" ref="M13:M16" si="3">_xlfn.VAR.P((M5:U5))</f>
+        <v>117.28416660791163</v>
+      </c>
+      <c r="N13">
+        <f>(_xlfn.VAR.P(M5:O5)+_xlfn.VAR.P(P5:R5)+_xlfn.VAR.P(S5:U5))/3</f>
+        <v>8.0545533818325712</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" ref="O13:O16" si="4">M13-N13</f>
+        <v>109.22961322607905</v>
+      </c>
+      <c r="P13" s="1">
+        <f>N13/M13</f>
+        <v>6.8675539203509467E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" ref="Q13:Q16" si="5">1-P13</f>
+        <v>0.93132446079649056</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" ref="X13:X16" si="6">_xlfn.VAR.P((X5:AF5))</f>
+        <v>16.28539206447163</v>
+      </c>
+      <c r="Y13">
+        <f>(_xlfn.VAR.P(X5:Z5)+_xlfn.VAR.P(AA5:AC5)+_xlfn.VAR.P(AD5:AF5))/3</f>
+        <v>2.6618494004267013</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" ref="Z13:Z16" si="7">X13-Y13</f>
+        <v>13.623542664044928</v>
+      </c>
+      <c r="AA13" s="1">
+        <f>Y13/X13</f>
+        <v>0.16345012695357933</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" ref="AB13:AB16" si="8">1-AA13</f>
+        <v>0.8365498730464207</v>
+      </c>
+      <c r="AC13" s="2"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>39.774466880644603</v>
+      </c>
+      <c r="C14">
+        <f>(_xlfn.VAR.P(B6:D6)+_xlfn.VAR.P(E6:G6)+_xlfn.VAR.P(H6:J6))/3</f>
+        <v>9.5113020669741299</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>30.263164813670471</v>
+      </c>
+      <c r="E14" s="1">
+        <f>C14/B14</f>
+        <v>0.23913084983679825</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.76086915016320178</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="3"/>
+        <v>70.865309343197566</v>
+      </c>
+      <c r="N14">
+        <f>(_xlfn.VAR.P(M6:O6)+_xlfn.VAR.P(P6:R6)+_xlfn.VAR.P(S6:U6))/3</f>
+        <v>22.990695953293535</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="4"/>
+        <v>47.874613389904027</v>
+      </c>
+      <c r="P14" s="1">
+        <f>N14/M14</f>
+        <v>0.3244280758297492</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6755719241702508</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="6"/>
+        <v>8.5279180707078535</v>
+      </c>
+      <c r="Y14">
+        <f>(_xlfn.VAR.P(X6:Z6)+_xlfn.VAR.P(AA6:AC6)+_xlfn.VAR.P(AD6:AF6))/3</f>
+        <v>1.0650118620580091</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="7"/>
+        <v>7.4629062086498443</v>
+      </c>
+      <c r="AA14" s="1">
+        <f>Y14/X14</f>
+        <v>0.1248853299513006</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="8"/>
+        <v>0.87511467004869936</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>55.552425174126483</v>
+      </c>
+      <c r="C15">
+        <f>(_xlfn.VAR.P(B7:D7)+_xlfn.VAR.P(E7:G7)+_xlfn.VAR.P(H7:J7))/3</f>
+        <v>5.250130698356597</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>50.302294475769884</v>
+      </c>
+      <c r="E15" s="1">
+        <f>C15/B15</f>
+        <v>9.4507677781848543E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90549232221815146</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="3"/>
+        <v>88.114007035032472</v>
+      </c>
+      <c r="N15">
+        <f>(_xlfn.VAR.P(M7:O7)+_xlfn.VAR.P(P7:R7)+_xlfn.VAR.P(S7:U7))/3</f>
+        <v>8.3612047965210774</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="4"/>
+        <v>79.752802238511393</v>
+      </c>
+      <c r="P15" s="1">
+        <f>N15/M15</f>
+        <v>9.4890756621666517E-2</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.90510924337833343</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="6"/>
+        <v>14.71117284767727</v>
+      </c>
+      <c r="Y15">
+        <f>(_xlfn.VAR.P(X7:Z7)+_xlfn.VAR.P(AA7:AC7)+_xlfn.VAR.P(AD7:AF7))/3</f>
+        <v>2.7310646484594687</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="7"/>
+        <v>11.980108199217801</v>
+      </c>
+      <c r="AA15" s="1">
+        <f>Y15/X15</f>
+        <v>0.18564560941112682</v>
+      </c>
+      <c r="AB15" s="1">
+        <f t="shared" si="8"/>
+        <v>0.81435439058887316</v>
+      </c>
+      <c r="AC15" s="2"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>353.13233603648609</v>
+      </c>
+      <c r="C16">
+        <f>(_xlfn.VAR.P(B8:D8)+_xlfn.VAR.P(E8:G8)+_xlfn.VAR.P(H8:J8))/3</f>
+        <v>81.062938428074361</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>272.06939760841175</v>
+      </c>
+      <c r="E16" s="1">
+        <f>C16/B16</f>
+        <v>0.22955399479389174</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77044600520610829</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="3"/>
+        <v>616.55360462229964</v>
+      </c>
+      <c r="N16">
+        <f>(_xlfn.VAR.P(M8:O8)+_xlfn.VAR.P(P8:R8)+_xlfn.VAR.P(S8:U8))/3</f>
+        <v>155.77689371082457</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="4"/>
+        <v>460.77671091147511</v>
+      </c>
+      <c r="P16" s="1">
+        <f>N16/M16</f>
+        <v>0.25265750219115723</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.74734249780884277</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="6"/>
+        <v>61.967542633876874</v>
+      </c>
+      <c r="Y16">
+        <f>(_xlfn.VAR.P(X8:Z8)+_xlfn.VAR.P(AA8:AC8)+_xlfn.VAR.P(AD8:AF8))/3</f>
+        <v>11.704141243666021</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="7"/>
+        <v>50.263401390210852</v>
+      </c>
+      <c r="AA16" s="1">
+        <f>Y16/X16</f>
+        <v>0.18887534903260009</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="8"/>
+        <v>0.81112465096739994</v>
+      </c>
+      <c r="AC16" s="2"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>17</v>
+      </c>
+      <c r="W19" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <f>MAX(B4:J4)-MIN(B4:J4)</f>
+        <v>38.013756936020798</v>
+      </c>
+      <c r="C20" s="2">
+        <f>(MAX(B4,C4,D4)+MAX(E4,F4,G4)+MAX(H4,I4,J4)-MIN(B4,C4,D4)-MIN(E4,F4,G4)-MIN(H4,I4,J4))/3</f>
+        <v>15.10362331837849</v>
+      </c>
+      <c r="D20" s="2">
+        <f>B20-C20</f>
+        <v>22.910133617642309</v>
+      </c>
+      <c r="E20" s="1">
+        <f>C20/B20</f>
+        <v>0.39731993193408122</v>
+      </c>
+      <c r="F20" s="1">
+        <f>1-E20</f>
+        <v>0.60268006806591878</v>
+      </c>
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <f>MAX(M4:U4)-MIN(M4:U4)</f>
+        <v>49.833924378347604</v>
+      </c>
+      <c r="N20" s="2">
+        <f>(MAX(M4,N4,O4)+MAX(P4,Q4,R4)+MAX(S4,T4,U4)-MIN(M4,N4,O4)-MIN(P4,Q4,R4)-MIN(S4,T4,U4))/3</f>
+        <v>20.070674378590201</v>
+      </c>
+      <c r="O20" s="2">
+        <f>M20-N20</f>
+        <v>29.763249999757402</v>
+      </c>
+      <c r="P20" s="1">
+        <f>N20/M20</f>
+        <v>0.40275123079230601</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>1-P20</f>
+        <v>0.59724876920769399</v>
+      </c>
+      <c r="W20" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <f>MAX(X4:AF4)-MIN(X4:AF4)</f>
+        <v>16.74701042398614</v>
+      </c>
+      <c r="Y20" s="2">
+        <f>(MAX(X4,Y4,Z4)+MAX(AA4,AB4,AC4)+MAX(AD4,AE4,AF4)-MIN(X4,Y4,Z4)-MIN(AA4,AB4,AC4)-MIN(AD4,AE4,AF4))/3</f>
+        <v>6.9927689215700468</v>
+      </c>
+      <c r="Z20" s="2">
+        <f>X20-Y20</f>
+        <v>9.7542415024160931</v>
+      </c>
+      <c r="AA20" s="1">
+        <f>Y20/X20</f>
+        <v>0.41755326739120885</v>
+      </c>
+      <c r="AB20" s="1">
+        <f>1-AA20</f>
+        <v>0.58244673260879121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <f>MAX(B5:J5)-MIN(B5:J5)</f>
+        <v>25.352627414654595</v>
+      </c>
+      <c r="C21" s="2">
+        <f>(MAX(B5,C5,D5)+MAX(E5,F5,G5)+MAX(H5,I5,J5)-MIN(B5,C5,D5)-MIN(E5,F5,G5)-MIN(H5,I5,J5))/3</f>
+        <v>5.0876387636136711</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" ref="D21:D24" si="9">B21-C21</f>
+        <v>20.264988651040923</v>
+      </c>
+      <c r="E21" s="1">
+        <f>C21/B21</f>
+        <v>0.20067501014403186</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" ref="F21:F24" si="10">1-E21</f>
+        <v>0.79932498985596812</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <f>MAX(M5:U5)-MIN(M5:U5)</f>
+        <v>31.818651358909392</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" ref="N21:N24" si="11">(MAX(M5,N5,O5)+MAX(P5,Q5,R5)+MAX(S5,T5,U5)-MIN(M5,N5,O5)-MIN(P5,Q5,R5)-MIN(S5,T5,U5))/3</f>
+        <v>6.6823970617707031</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" ref="O21:O24" si="12">M21-N21</f>
+        <v>25.136254297138688</v>
+      </c>
+      <c r="P21" s="1">
+        <f>N21/M21</f>
+        <v>0.21001509417838971</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" ref="Q21:Q24" si="13">1-P21</f>
+        <v>0.78998490582161029</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2">
+        <f>MAX(X5:AF5)-MIN(X5:AF5)</f>
+        <v>12.602324140983878</v>
+      </c>
+      <c r="Y21" s="2">
+        <f t="shared" ref="Y21:Y24" si="14">(MAX(X5,Y5,Z5)+MAX(AA5,AB5,AC5)+MAX(AD5,AE5,AF5)-MIN(X5,Y5,Z5)-MIN(AA5,AB5,AC5)-MIN(AD5,AE5,AF5))/3</f>
+        <v>3.332164459309142</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" ref="Z21:Z24" si="15">X21-Y21</f>
+        <v>9.2701596816747358</v>
+      </c>
+      <c r="AA21" s="1">
+        <f>Y21/X21</f>
+        <v>0.26440872509163982</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" ref="AB21:AB24" si="16">1-AA21</f>
+        <v>0.73559127490836018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <f>MAX(B6:J6)-MIN(B6:J6)</f>
+        <v>19.871654526897196</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:C24" si="17">(MAX(B6,C6,D6)+MAX(E6,F6,G6)+MAX(H6,I6,J6)-MIN(B6,C6,D6)-MIN(E6,F6,G6)-MIN(H6,I6,J6))/3</f>
+        <v>6.5856077374029987</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="9"/>
+        <v>13.286046789494197</v>
+      </c>
+      <c r="E22" s="1">
+        <f>C22/B22</f>
+        <v>0.33140711703140152</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="10"/>
+        <v>0.66859288296859853</v>
+      </c>
+      <c r="L22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="2">
+        <f>MAX(M6:U6)-MIN(M6:U6)</f>
+        <v>27.16958702186</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="11"/>
+        <v>10.957944259965567</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="12"/>
+        <v>16.211642761894431</v>
+      </c>
+      <c r="P22" s="1">
+        <f>N22/M22</f>
+        <v>0.40331655579266135</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="13"/>
+        <v>0.59668344420733865</v>
+      </c>
+      <c r="W22" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="2">
+        <f>MAX(X6:AF6)-MIN(X6:AF6)</f>
+        <v>9.9590412488179698</v>
+      </c>
+      <c r="Y22" s="2">
+        <f t="shared" si="14"/>
+        <v>2.1411027051328637</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="15"/>
+        <v>7.8179385436851057</v>
+      </c>
+      <c r="AA22" s="1">
+        <f>Y22/X22</f>
+        <v>0.21499084617075859</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="16"/>
+        <v>0.78500915382924141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <f>MAX(B7:J7)-MIN(B7:J7)</f>
+        <v>23.444210631509804</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="17"/>
+        <v>5.0906989668376355</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="9"/>
+        <v>18.353511664672169</v>
+      </c>
+      <c r="E23" s="1">
+        <f>C23/B23</f>
+        <v>0.21714098405154086</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="10"/>
+        <v>0.78285901594845919</v>
+      </c>
+      <c r="L23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="2">
+        <f>MAX(M7:U7)-MIN(M7:U7)</f>
+        <v>29.001614987481197</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="11"/>
+        <v>6.7914883687419021</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="12"/>
+        <v>22.210126618739295</v>
+      </c>
+      <c r="P23" s="1">
+        <f>N23/M23</f>
+        <v>0.23417621300308647</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="13"/>
+        <v>0.76582378699691356</v>
+      </c>
+      <c r="W23" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="2">
+        <f>MAX(X7:AF7)-MIN(X7:AF7)</f>
+        <v>12.13840999568952</v>
+      </c>
+      <c r="Y23" s="2">
+        <f t="shared" si="14"/>
+        <v>3.3448291795207559</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="15"/>
+        <v>8.7935808161687632</v>
+      </c>
+      <c r="AA23" s="1">
+        <f>Y23/X23</f>
+        <v>0.27555743962417983</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="16"/>
+        <v>0.72444256037582022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <f>MAX(B8:J8)-MIN(B8:J8)</f>
+        <v>63.238875407571591</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="17"/>
+        <v>20.558742860290625</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="9"/>
+        <v>42.680132547280962</v>
+      </c>
+      <c r="E24" s="1">
+        <f>C24/B24</f>
+        <v>0.32509659173713146</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="10"/>
+        <v>0.67490340826286854</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="2">
+        <f>MAX(M8:U8)-MIN(M8:U8)</f>
+        <v>83.195629877059915</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="11"/>
+        <v>28.725732666905628</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="12"/>
+        <v>54.469897210154286</v>
+      </c>
+      <c r="P24" s="1">
+        <f>N24/M24</f>
+        <v>0.34527934591461473</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="13"/>
+        <v>0.65472065408538527</v>
+      </c>
+      <c r="W24" t="s">
+        <v>7</v>
+      </c>
+      <c r="X24" s="2">
+        <f>MAX(X8:AF8)-MIN(X8:AF8)</f>
+        <v>25.762095540915361</v>
+      </c>
+      <c r="Y24" s="2">
+        <f t="shared" si="14"/>
+        <v>7.2320976168873541</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="15"/>
+        <v>18.529997924028006</v>
+      </c>
+      <c r="AA24" s="1">
+        <f>Y24/X24</f>
+        <v>0.28072629438864305</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="16"/>
+        <v>0.71927370561135695</v>
       </c>
     </row>
   </sheetData>
